--- a/infinite/Excel/Language_Multiple.xlsx
+++ b/infinite/Excel/Language_Multiple.xlsx
@@ -58,6 +58,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF7F3BF5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF34C724"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -86,49 +100,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF34C724"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF270561"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF7F3BF5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF14BA9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF01D94"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -144,6 +115,35 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF01D94"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF14BA9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF270561"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -294,25 +294,25 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -321,13 +321,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="0" fontId="15" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,25 +677,25 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="21" r="1">
-      <c r="A1" s="12" t="str">
+      <c r="A1" s="14" t="str">
         <v>int</v>
       </c>
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="14" t="str">
         <v>string</v>
       </c>
-      <c r="C1" s="12" t="str">
+      <c r="C1" s="14" t="str">
         <v>string</v>
       </c>
-      <c r="D1" s="12" t="str">
+      <c r="D1" s="14" t="str">
         <v>string</v>
       </c>
-      <c r="E1" s="12" t="str">
+      <c r="E1" s="14" t="str">
         <v>string</v>
       </c>
-      <c r="F1" s="12" t="str">
+      <c r="F1" s="14" t="str">
         <v>string</v>
       </c>
-      <c r="G1" s="12" t="str">
+      <c r="G1" s="14" t="str">
         <v>string</v>
       </c>
       <c r="H1" s="1"/>
@@ -713,25 +713,25 @@
       <c r="T1" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="2">
-      <c r="A2" s="12" t="str">
+      <c r="A2" s="14" t="str">
         <v>Id</v>
       </c>
-      <c r="B2" s="12" t="str">
+      <c r="B2" s="14" t="str">
         <v>Name</v>
       </c>
-      <c r="C2" s="12" t="str">
+      <c r="C2" s="14" t="str">
         <v>Value</v>
       </c>
-      <c r="D2" s="12" t="str">
+      <c r="D2" s="14" t="str">
         <v>Value_Ch</v>
       </c>
-      <c r="E2" s="12" t="str">
+      <c r="E2" s="14" t="str">
         <v>Value_Cht</v>
       </c>
-      <c r="F2" s="12" t="str">
+      <c r="F2" s="14" t="str">
         <v>Value_J</v>
       </c>
-      <c r="G2" s="12" t="str">
+      <c r="G2" s="14" t="str">
         <v>Value_K</v>
       </c>
       <c r="H2" s="1"/>
@@ -749,25 +749,25 @@
       <c r="T2" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="3">
-      <c r="A3" s="12" t="str">
+      <c r="A3" s="14" t="str">
         <v>唯一标识</v>
       </c>
-      <c r="B3" s="12" t="str">
+      <c r="B3" s="14" t="str">
         <v>名字</v>
       </c>
-      <c r="C3" s="12" t="str">
+      <c r="C3" s="14" t="str">
         <v>英文</v>
       </c>
-      <c r="D3" s="12" t="str">
+      <c r="D3" s="14" t="str">
         <v>中文</v>
       </c>
-      <c r="E3" s="12" t="str">
+      <c r="E3" s="14" t="str">
         <v>繁中</v>
       </c>
-      <c r="F3" s="12" t="str">
+      <c r="F3" s="14" t="str">
         <v>日语</v>
       </c>
-      <c r="G3" s="12" t="str">
+      <c r="G3" s="14" t="str">
         <v>韩语</v>
       </c>
       <c r="H3" s="1"/>
@@ -785,23 +785,23 @@
       <c r="T3" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="4">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="str">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14" t="str">
         <v>Key|ReadByName</v>
       </c>
-      <c r="C4" s="12" t="str">
+      <c r="C4" s="14" t="str">
         <v>MainLanguage</v>
       </c>
-      <c r="D4" s="12" t="str">
+      <c r="D4" s="14" t="str">
         <v>ChildLanguage</v>
       </c>
-      <c r="E4" s="12" t="str">
+      <c r="E4" s="14" t="str">
         <v>ChildLanguage</v>
       </c>
-      <c r="F4" s="12" t="str">
+      <c r="F4" s="14" t="str">
         <v>ChildLanguage</v>
       </c>
-      <c r="G4" s="12" t="str">
+      <c r="G4" s="14" t="str">
         <v>ChildLanguage</v>
       </c>
       <c r="H4" s="1"/>
@@ -3280,7 +3280,7 @@
       <c r="C79" s="1" t="str">
         <v>Automatic Attack Fist (Male)</v>
       </c>
-      <c r="D79" s="8" t="str">
+      <c r="D79" s="15" t="str">
         <v>自动攻击拳(男)</v>
       </c>
       <c r="E79" s="1"/>
@@ -3310,7 +3310,7 @@
       <c r="C80" s="1" t="str">
         <v>Automatic Attack Fist (Female)</v>
       </c>
-      <c r="D80" s="8" t="str">
+      <c r="D80" s="15" t="str">
         <v>自动攻击拳(女)</v>
       </c>
       <c r="E80" s="1"/>
@@ -3490,7 +3490,7 @@
       <c r="C86" s="1" t="str">
         <v>Trident Of The Sea God</v>
       </c>
-      <c r="D86" s="9" t="str">
+      <c r="D86" s="3" t="str">
         <v>海神三叉戟</v>
       </c>
       <c r="E86" s="1"/>
@@ -3520,7 +3520,7 @@
       <c r="C87" s="1" t="str">
         <v>Cyber Comes With A Long Spear</v>
       </c>
-      <c r="D87" s="9" t="str">
+      <c r="D87" s="3" t="str">
         <v>赛博自来也长枪</v>
       </c>
       <c r="E87" s="1"/>
@@ -3550,7 +3550,7 @@
       <c r="C88" s="1" t="str">
         <v>Sea King Double Headed Knife</v>
       </c>
-      <c r="D88" s="9" t="str">
+      <c r="D88" s="3" t="str">
         <v>海王双头刀</v>
       </c>
       <c r="E88" s="1"/>
@@ -3580,7 +3580,7 @@
       <c r="C89" s="1" t="str">
         <v>Captain America'S Hammer</v>
       </c>
-      <c r="D89" s="5" t="str">
+      <c r="D89" s="7" t="str">
         <v>美国队长神锤</v>
       </c>
       <c r="E89" s="1"/>
@@ -3610,7 +3610,7 @@
       <c r="C90" s="1" t="str">
         <v>Venom Axe</v>
       </c>
-      <c r="D90" s="5" t="str">
+      <c r="D90" s="7" t="str">
         <v>毒液斧头</v>
       </c>
       <c r="E90" s="1"/>
@@ -3640,7 +3640,7 @@
       <c r="C91" s="1" t="str">
         <v>Mieba Axe</v>
       </c>
-      <c r="D91" s="5" t="str">
+      <c r="D91" s="7" t="str">
         <v>灭霸斧</v>
       </c>
       <c r="E91" s="1"/>
@@ -3670,7 +3670,7 @@
       <c r="C92" s="1" t="str">
         <v>Naruto Wielding A Sword</v>
       </c>
-      <c r="D92" s="5" t="str">
+      <c r="D92" s="7" t="str">
         <v>鸣人手里剑</v>
       </c>
       <c r="E92" s="1"/>
@@ -3700,7 +3700,7 @@
       <c r="C93" s="1" t="str">
         <v>Future Warrior Golden Sword</v>
       </c>
-      <c r="D93" s="5" t="str">
+      <c r="D93" s="7" t="str">
         <v>未来战士黄金剑</v>
       </c>
       <c r="E93" s="1"/>
@@ -3853,7 +3853,7 @@
       <c r="C98" s="1" t="str">
         <v>Knife (Exclusive To Lilock)</v>
       </c>
-      <c r="D98" s="11" t="str">
+      <c r="D98" s="12" t="str">
         <v>刀(李洛克专用)</v>
       </c>
       <c r="E98" s="1"/>
@@ -3979,7 +3979,7 @@
       <c r="C102" s="1" t="str">
         <v>Monster Claw Knife</v>
       </c>
-      <c r="D102" s="11" t="str">
+      <c r="D102" s="12" t="str">
         <v>怪物爪刀</v>
       </c>
       <c r="E102" s="1"/>
@@ -4162,7 +4162,7 @@
       <c r="C108" s="1" t="str">
         <v>Blue Staff (Loki Specific)</v>
       </c>
-      <c r="D108" s="5" t="str">
+      <c r="D108" s="7" t="str">
         <v>蓝色法杖
 洛基专用</v>
       </c>
@@ -4193,7 +4193,7 @@
       <c r="C109" s="1" t="str">
         <v>Sickle (Sun God Exclusive)</v>
       </c>
-      <c r="D109" s="5" t="str">
+      <c r="D109" s="7" t="str">
         <v>镰刀
 太阳神专用</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>Demon Sword
 Exclusively For Uchiha Madara</v>
       </c>
-      <c r="D110" s="5" t="str">
+      <c r="D110" s="7" t="str">
         <v>恶魔剑
 宇智波斑爷专用</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>Sword
 Specifically Designed For Nanorobots</v>
       </c>
-      <c r="D111" s="5" t="str">
+      <c r="D111" s="7" t="str">
         <v>剑(纳米机器人专用)</v>
       </c>
       <c r="E111" s="1"/>
@@ -4287,7 +4287,7 @@
       <c r="C112" s="1" t="str">
         <v>Sickle (Deadpool Specific)</v>
       </c>
-      <c r="D112" s="5" t="str">
+      <c r="D112" s="7" t="str">
         <v>镰刀(死侍专用)</v>
       </c>
       <c r="E112" s="1"/>
@@ -4318,7 +4318,7 @@
         <v>Fluorescent Sword
 For Volcano Sentinels Only</v>
       </c>
-      <c r="D113" s="10" t="str">
+      <c r="D113" s="13" t="str">
         <v>荧光剑
 火山哨兵专用</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>Fanatical Sword
 Exclusive To Crimson Witch</v>
       </c>
-      <c r="D114" s="10" t="str">
+      <c r="D114" s="13" t="str">
         <v>狂热剑
 绯红女巫专用</v>
       </c>
@@ -4381,7 +4381,7 @@
       <c r="C115" s="1" t="str">
         <v>Inflatable Hammer</v>
       </c>
-      <c r="D115" s="7" t="str">
+      <c r="D115" s="4" t="str">
         <v>充气锤子</v>
       </c>
       <c r="E115" s="1"/>
@@ -4412,7 +4412,7 @@
         <v>Wooden Staff
 Venom Spider Man Specific</v>
       </c>
-      <c r="D116" s="7" t="str">
+      <c r="D116" s="4" t="str">
         <v>木法杖
 毒液蜘蛛侠专用</v>
       </c>
@@ -4443,7 +4443,7 @@
       <c r="C117" s="1" t="str">
         <v>Guazi Shield</v>
       </c>
-      <c r="D117" s="7" t="str">
+      <c r="D117" s="4" t="str">
         <v>瓜子盾</v>
       </c>
       <c r="E117" s="1"/>
@@ -4473,7 +4473,7 @@
       <c r="C118" s="1" t="str">
         <v>Shield (Hulk Exclusive)</v>
       </c>
-      <c r="D118" s="7" t="str">
+      <c r="D118" s="4" t="str">
         <v>盾(浩克专用)</v>
       </c>
       <c r="E118" s="1"/>
@@ -4657,7 +4657,7 @@
         <v>Sword
 Exclusively For Wolverine</v>
       </c>
-      <c r="D124" s="7" t="str">
+      <c r="D124" s="4" t="str">
         <v>剑(金刚狼专用)</v>
       </c>
       <c r="E124" s="1"/>
@@ -4687,7 +4687,7 @@
       <c r="C125" s="1" t="str">
         <v>Laser Gun (Iron Man Specific)</v>
       </c>
-      <c r="D125" s="7" t="str">
+      <c r="D125" s="4" t="str">
         <v>激光枪(钢铁侠专用)</v>
       </c>
       <c r="E125" s="1"/>
@@ -4717,7 +4717,7 @@
       <c r="C126" s="1" t="str">
         <v>Couple Mech Set (Female)</v>
       </c>
-      <c r="D126" s="7" t="str">
+      <c r="D126" s="4" t="str">
         <v>情侣机甲套装(女)</v>
       </c>
       <c r="E126" s="1"/>
@@ -4747,7 +4747,7 @@
       <c r="C127" s="1" t="str">
         <v>Couple Mech Set (Male)</v>
       </c>
-      <c r="D127" s="7" t="str">
+      <c r="D127" s="4" t="str">
         <v>情侣机甲套装(男)</v>
       </c>
       <c r="E127" s="1"/>
@@ -6700,7 +6700,7 @@
       <c r="C192" s="1" t="str">
         <v>Rainbow Friends</v>
       </c>
-      <c r="D192" s="5" t="str">
+      <c r="D192" s="7" t="str">
         <v>Rainbow friends</v>
       </c>
       <c r="E192" s="1"/>
@@ -6730,7 +6730,7 @@
       <c r="C193" s="1" t="str">
         <v>Sea God</v>
       </c>
-      <c r="D193" s="5" t="str">
+      <c r="D193" s="7" t="str">
         <v>海神</v>
       </c>
       <c r="E193" s="1"/>
@@ -10975,31 +10975,31 @@
       <c r="A334" s="1">
         <v>330</v>
       </c>
-      <c r="B334" s="14" t="str">
+      <c r="B334" s="11" t="str">
         <v>Text_Guid_28</v>
       </c>
-      <c r="C334" s="14" t="str">
+      <c r="C334" s="11" t="str">
         <v>Forge Soul Bones</v>
       </c>
-      <c r="D334" s="15" t="str">
+      <c r="D334" s="8" t="str">
         <v>锻造魂骨</v>
       </c>
-      <c r="E334" s="14"/>
-      <c r="F334" s="14"/>
-      <c r="G334" s="14"/>
-      <c r="H334" s="14"/>
-      <c r="I334" s="14"/>
-      <c r="J334" s="14"/>
-      <c r="K334" s="14"/>
-      <c r="L334" s="14"/>
-      <c r="M334" s="14"/>
-      <c r="N334" s="14"/>
-      <c r="O334" s="14"/>
-      <c r="P334" s="14"/>
-      <c r="Q334" s="14"/>
-      <c r="R334" s="14"/>
-      <c r="S334" s="14"/>
-      <c r="T334" s="14"/>
+      <c r="E334" s="11"/>
+      <c r="F334" s="11"/>
+      <c r="G334" s="11"/>
+      <c r="H334" s="11"/>
+      <c r="I334" s="11"/>
+      <c r="J334" s="11"/>
+      <c r="K334" s="11"/>
+      <c r="L334" s="11"/>
+      <c r="M334" s="11"/>
+      <c r="N334" s="11"/>
+      <c r="O334" s="11"/>
+      <c r="P334" s="11"/>
+      <c r="Q334" s="11"/>
+      <c r="R334" s="11"/>
+      <c r="S334" s="11"/>
+      <c r="T334" s="11"/>
     </row>
     <row customHeight="true" ht="21" r="335">
       <c r="A335" s="1">
@@ -15159,7 +15159,7 @@
       <c r="C473" s="1" t="str">
         <v>Daily Login To Games（{0}/{1}）</v>
       </c>
-      <c r="D473" s="3" t="str">
+      <c r="D473" s="5" t="str">
         <v>每日登陆游戏（{0}/{1}）</v>
       </c>
       <c r="E473" s="1"/>
@@ -15189,7 +15189,7 @@
       <c r="C474" s="1" t="str">
         <v>Daily Online {2} Minutes（{0}/{1}）</v>
       </c>
-      <c r="D474" s="3" t="str">
+      <c r="D474" s="5" t="str">
         <v>每日在线时长{2}分钟（{0}/{1}）</v>
       </c>
       <c r="E474" s="1"/>
@@ -15219,7 +15219,7 @@
       <c r="C475" s="1" t="str">
         <v>Defeat {2} Medusa Every Day（{0}/{1}）</v>
       </c>
-      <c r="D475" s="3" t="str">
+      <c r="D475" s="5" t="str">
         <v>每日击败{2}只美杜莎（{0}/{1}）</v>
       </c>
       <c r="E475" s="1"/>
@@ -15249,7 +15249,7 @@
       <c r="C476" s="1" t="str">
         <v>Defeat {2} Spider Spirits Daily（{0}/{1}）</v>
       </c>
-      <c r="D476" s="3" t="str">
+      <c r="D476" s="5" t="str">
         <v>每日击败{2}只蜘蛛精（{0}/{1}）</v>
       </c>
       <c r="E476" s="1"/>
@@ -15279,7 +15279,7 @@
       <c r="C477" s="1" t="str">
         <v>Defeat {2} Dazzling Spiders Daily（{0}/{1}）</v>
       </c>
-      <c r="D477" s="3" t="str">
+      <c r="D477" s="5" t="str">
         <v>每日击败{2}只炫彩蜘蛛（{0}/{1}）</v>
       </c>
       <c r="E477" s="1"/>
@@ -15309,7 +15309,7 @@
       <c r="C478" s="1" t="str">
         <v>Defeat {2} Dragon Beasts Daily（{0}/{1}）</v>
       </c>
-      <c r="D478" s="3" t="str">
+      <c r="D478" s="5" t="str">
         <v>每日击败{2}只龙兽（{0}/{1}）</v>
       </c>
       <c r="E478" s="1"/>
@@ -15339,7 +15339,7 @@
       <c r="C479" s="1" t="str">
         <v>Defeat {2} Zombies Daily（{0}/{1}）</v>
       </c>
-      <c r="D479" s="3" t="str">
+      <c r="D479" s="5" t="str">
         <v>每日击败{2}只丧尸（{0}/{1}）</v>
       </c>
       <c r="E479" s="1"/>
@@ -15369,7 +15369,7 @@
       <c r="C480" s="1" t="str">
         <v>Defeat {2} Mutated Puppets Daily（{0}/{1}）</v>
       </c>
-      <c r="D480" s="3" t="str">
+      <c r="D480" s="5" t="str">
         <v>每日击败{2}只变异布偶（{0}/{1}）</v>
       </c>
       <c r="E480" s="1"/>
@@ -15399,7 +15399,7 @@
       <c r="C481" s="1" t="str">
         <v>Defeat {2} Players Daily（{0}/{1}）</v>
       </c>
-      <c r="D481" s="3" t="str">
+      <c r="D481" s="5" t="str">
         <v>每日击败{2}名玩家（{0}/{1}）</v>
       </c>
       <c r="E481" s="1"/>
@@ -15429,7 +15429,7 @@
       <c r="C482" s="1" t="str">
         <v>Daily Level Increase By {2} Levels（{0}/{1}）</v>
       </c>
-      <c r="D482" s="3" t="str">
+      <c r="D482" s="5" t="str">
         <v>每日等级提升{2}级（{0}/{1}）</v>
       </c>
       <c r="E482" s="1"/>
@@ -15459,7 +15459,7 @@
       <c r="C483" s="1" t="str">
         <v>Pick Up {2} Treasures Every Day（{0}/{1}）</v>
       </c>
-      <c r="D483" s="3" t="str">
+      <c r="D483" s="5" t="str">
         <v>每日捡到{2}个秘宝（{0}/{1}）</v>
       </c>
       <c r="E483" s="1"/>
@@ -15489,7 +15489,7 @@
       <c r="C484" s="1" t="str">
         <v>Watch {2} Ads Per Day（{0}/{1}）</v>
       </c>
-      <c r="D484" s="3" t="str">
+      <c r="D484" s="5" t="str">
         <v>每日观看{2}次广告（{0}/{1}）</v>
       </c>
       <c r="E484" s="1"/>
@@ -15519,7 +15519,7 @@
       <c r="C485" s="1" t="str">
         <v>Login {2} Days A Week（{0}/{1}）</v>
       </c>
-      <c r="D485" s="3" t="str">
+      <c r="D485" s="5" t="str">
         <v>每周登录{2}天（{0}/{1}）</v>
       </c>
       <c r="E485" s="1"/>
@@ -15549,7 +15549,7 @@
       <c r="C486" s="1" t="str">
         <v>Up To 30 Minutes And {2} Days Per Week（{0}/{1}）</v>
       </c>
-      <c r="D486" s="3" t="str">
+      <c r="D486" s="5" t="str">
         <v>每周时长达到30分钟{2}天（{0}/{1}）</v>
       </c>
       <c r="E486" s="1"/>
@@ -15579,7 +15579,7 @@
       <c r="C487" s="1" t="str">
         <v>Defeat {2} Medusa Every Week（{0}/{1}）</v>
       </c>
-      <c r="D487" s="3" t="str">
+      <c r="D487" s="5" t="str">
         <v>每周击败{2}只美杜莎（{0}/{1}）</v>
       </c>
       <c r="E487" s="1"/>
@@ -15609,7 +15609,7 @@
       <c r="C488" s="1" t="str">
         <v>Defeat {2} Spider Spirits Every Week（{0}/{1}）</v>
       </c>
-      <c r="D488" s="3" t="str">
+      <c r="D488" s="5" t="str">
         <v>每周击败{2}只蜘蛛精（{0}/{1}）</v>
       </c>
       <c r="E488" s="1"/>
@@ -15639,7 +15639,7 @@
       <c r="C489" s="1" t="str">
         <v>Defeat {2} Dazzling Spiders Every Week（{0}/{1}）</v>
       </c>
-      <c r="D489" s="3" t="str">
+      <c r="D489" s="5" t="str">
         <v>每周击败{2}只炫彩蜘蛛（{0}/{1}）</v>
       </c>
       <c r="E489" s="1"/>
@@ -15669,7 +15669,7 @@
       <c r="C490" s="1" t="str">
         <v>Defeat {2} Dragon Beasts Every Week（{0}/{1}）</v>
       </c>
-      <c r="D490" s="3" t="str">
+      <c r="D490" s="5" t="str">
         <v>每周击败{2}只龙兽（{0}/{1}）</v>
       </c>
       <c r="E490" s="1"/>
@@ -15699,7 +15699,7 @@
       <c r="C491" s="1" t="str">
         <v>Defeat {2} Zombies Every Week（{0}/{1}）</v>
       </c>
-      <c r="D491" s="3" t="str">
+      <c r="D491" s="5" t="str">
         <v>每周击败{2}只丧尸（{0}/{1}）</v>
       </c>
       <c r="E491" s="1"/>
@@ -15729,7 +15729,7 @@
       <c r="C492" s="1" t="str">
         <v>Defeat {2} Mutated Puppets Every Week（{0}/{1}）</v>
       </c>
-      <c r="D492" s="3" t="str">
+      <c r="D492" s="5" t="str">
         <v>每周击败{2}只变异布偶（{0}/{1}）</v>
       </c>
       <c r="E492" s="1"/>
@@ -15759,7 +15759,7 @@
       <c r="C493" s="1" t="str">
         <v>Defeat {2} Players Per Week（{0}/{1}）</v>
       </c>
-      <c r="D493" s="3" t="str">
+      <c r="D493" s="5" t="str">
         <v>每周击败{2}名玩家（{0}/{1}）</v>
       </c>
       <c r="E493" s="1"/>
@@ -15789,7 +15789,7 @@
       <c r="C494" s="1" t="str">
         <v>Upgrade By {2} Levels Per Week（{0}/{1}）</v>
       </c>
-      <c r="D494" s="3" t="str">
+      <c r="D494" s="5" t="str">
         <v>每周等级提升{2}级（{0}/{1}）</v>
       </c>
       <c r="E494" s="1"/>
@@ -15819,7 +15819,7 @@
       <c r="C495" s="1" t="str">
         <v>Pick Up {2} Treasures Every Week（{0}/{1}）</v>
       </c>
-      <c r="D495" s="3" t="str">
+      <c r="D495" s="5" t="str">
         <v>每周捡到{2}个秘宝（{0}/{1}）</v>
       </c>
       <c r="E495" s="1"/>
@@ -15849,7 +15849,7 @@
       <c r="C496" s="1" t="str">
         <v>Watch {2} Ads Per Week（{0}/{1}）</v>
       </c>
-      <c r="D496" s="3" t="str">
+      <c r="D496" s="5" t="str">
         <v>每周观看{2}次广告（{0}/{1}）</v>
       </c>
       <c r="E496" s="1"/>
@@ -16866,10 +16866,10 @@
       <c r="B530" s="1" t="str">
         <v>Text_EternalImmortalEmperor</v>
       </c>
-      <c r="C530" s="6" t="str">
+      <c r="C530" s="10" t="str">
         <v>Eternal Immortal Emperor</v>
       </c>
-      <c r="D530" s="6" t="str">
+      <c r="D530" s="10" t="str">
         <v>万古仙帝</v>
       </c>
       <c r="E530" s="1"/>
@@ -16923,7 +16923,7 @@
       <c r="A532" s="1">
         <v>528</v>
       </c>
-      <c r="B532" s="6" t="str">
+      <c r="B532" s="10" t="str">
         <v>Text_MartialSoulMechSlashWindSlash_Female</v>
       </c>
       <c r="C532" s="1" t="str">
@@ -17263,7 +17263,7 @@
       <c r="C543" s="1" t="str">
         <v>Open World</v>
       </c>
-      <c r="D543" s="4" t="str">
+      <c r="D543" s="6" t="str">
         <v>开放世界</v>
       </c>
       <c r="E543" s="1"/>
@@ -17293,7 +17293,7 @@
       <c r="C544" s="1" t="str">
         <v>Stay</v>
       </c>
-      <c r="D544" s="4" t="str">
+      <c r="D544" s="6" t="str">
         <v>留下来</v>
       </c>
       <c r="E544" s="1"/>
@@ -17323,7 +17323,7 @@
       <c r="C545" s="1" t="str">
         <v>Bad Guy</v>
       </c>
-      <c r="D545" s="4" t="str">
+      <c r="D545" s="6" t="str">
         <v>坏人</v>
       </c>
       <c r="E545" s="1"/>
@@ -17353,7 +17353,7 @@
       <c r="C546" s="1" t="str">
         <v>I Will Survive</v>
       </c>
-      <c r="D546" s="13" t="str">
+      <c r="D546" s="9" t="str">
         <v>我会活下去</v>
       </c>
       <c r="E546" s="1"/>
@@ -17383,7 +17383,7 @@
       <c r="C547" s="1" t="str">
         <v>Let Me Love You</v>
       </c>
-      <c r="D547" s="4" t="str">
+      <c r="D547" s="6" t="str">
         <v>让我爱你</v>
       </c>
       <c r="E547" s="1"/>
@@ -17413,7 +17413,7 @@
       <c r="C548" s="1" t="str">
         <v>Running Up That Hill</v>
       </c>
-      <c r="D548" s="4" t="str">
+      <c r="D548" s="6" t="str">
         <v>跑上那座山</v>
       </c>
       <c r="E548" s="1"/>
@@ -17443,7 +17443,7 @@
       <c r="C549" s="1" t="str">
         <v>Love To Hate Me</v>
       </c>
-      <c r="D549" s="4" t="str">
+      <c r="D549" s="6" t="str">
         <v>爱恨我</v>
       </c>
       <c r="E549" s="1"/>
@@ -17473,7 +17473,7 @@
       <c r="C550" s="1" t="str">
         <v>Tomboy</v>
       </c>
-      <c r="D550" s="4" t="str">
+      <c r="D550" s="6" t="str">
         <v>假小子</v>
       </c>
       <c r="E550" s="1"/>
@@ -17503,7 +17503,7 @@
       <c r="C551" s="1" t="str">
         <v>Shut Down</v>
       </c>
-      <c r="D551" s="4" t="str">
+      <c r="D551" s="6" t="str">
         <v>关闭</v>
       </c>
       <c r="E551" s="1"/>
@@ -17533,7 +17533,7 @@
       <c r="C552" s="1" t="str">
         <v>Celestial</v>
       </c>
-      <c r="D552" s="4" t="str">
+      <c r="D552" s="6" t="str">
         <v>天空的</v>
       </c>
       <c r="E552" s="1"/>
@@ -17563,7 +17563,7 @@
       <c r="C553" s="1" t="str">
         <v>As It Was</v>
       </c>
-      <c r="D553" s="13" t="str">
+      <c r="D553" s="9" t="str">
         <v>事实上</v>
       </c>
       <c r="E553" s="1"/>
@@ -17593,7 +17593,7 @@
       <c r="C554" s="1" t="str">
         <v>Good Morning</v>
       </c>
-      <c r="D554" s="4" t="str">
+      <c r="D554" s="6" t="str">
         <v>早上好</v>
       </c>
       <c r="E554" s="1"/>
@@ -17623,7 +17623,7 @@
       <c r="C555" s="1" t="str">
         <v>Alone</v>
       </c>
-      <c r="D555" s="4" t="str">
+      <c r="D555" s="6" t="str">
         <v>独自一人</v>
       </c>
       <c r="E555" s="1"/>
@@ -17653,7 +17653,7 @@
       <c r="C556" s="1" t="str">
         <v>Chanderiler</v>
       </c>
-      <c r="D556" s="4" t="str">
+      <c r="D556" s="6" t="str">
         <v>钱德里勒</v>
       </c>
       <c r="E556" s="1"/>
@@ -17683,7 +17683,7 @@
       <c r="C557" s="1" t="str">
         <v>Don'T Wanna Know</v>
       </c>
-      <c r="D557" s="4" t="str">
+      <c r="D557" s="6" t="str">
         <v>不想知道</v>
       </c>
       <c r="E557" s="1"/>
@@ -17713,7 +17713,7 @@
       <c r="C558" s="1" t="str">
         <v>Mood</v>
       </c>
-      <c r="D558" s="4" t="str">
+      <c r="D558" s="6" t="str">
         <v>心情</v>
       </c>
       <c r="E558" s="1"/>
@@ -17743,7 +17743,7 @@
       <c r="C559" s="1" t="str">
         <v>Moon</v>
       </c>
-      <c r="D559" s="13" t="str">
+      <c r="D559" s="9" t="str">
         <v>金轮</v>
       </c>
       <c r="E559" s="1"/>
@@ -17773,7 +17773,7 @@
       <c r="C560" s="1" t="str">
         <v>I Don'T Know What It'S Called</v>
       </c>
-      <c r="D560" s="4" t="str">
+      <c r="D560" s="6" t="str">
         <v>不知道叫啥</v>
       </c>
       <c r="E560" s="1"/>
@@ -17803,7 +17803,7 @@
       <c r="C561" s="1" t="str">
         <v>I Don'T Know What It'S Called</v>
       </c>
-      <c r="D561" s="4" t="str">
+      <c r="D561" s="6" t="str">
         <v>也不知道叫啥</v>
       </c>
       <c r="E561" s="1"/>
@@ -17980,7 +17980,7 @@
       <c r="B567" s="1" t="str">
         <v>Text_ForgeSoulRings_Button</v>
       </c>
-      <c r="C567" s="15" t="str">
+      <c r="C567" s="8" t="str">
         <v>Forge Soul Rings</v>
       </c>
       <c r="D567" s="1" t="str">
@@ -18004,10 +18004,19 @@
       <c r="T567" s="1"/>
     </row>
     <row r="568">
-      <c r="A568" s="1"/>
-      <c r="B568" s="1"/>
-      <c r="C568" s="1"/>
-      <c r="D568" s="1"/>
+      <c r="A568" s="1">
+        <v>564</v>
+      </c>
+      <c r="B568" s="8" t="str">
+        <v>Text_LotsOfDiamonds</v>
+      </c>
+      <c r="C568" s="1" t="str">
+        <v>Lots Of Diamonds</v>
+      </c>
+      <c r="D568" s="1" t="str">
+        <v>领取大量钻石
+下次翻倍</v>
+      </c>
       <c r="E568" s="1"/>
       <c r="F568" s="1"/>
       <c r="G568" s="1"/>
@@ -18026,10 +18035,18 @@
       <c r="T568" s="1"/>
     </row>
     <row r="569">
-      <c r="A569" s="1"/>
-      <c r="B569" s="1"/>
-      <c r="C569" s="1"/>
-      <c r="D569" s="1"/>
+      <c r="A569" s="1">
+        <v>565</v>
+      </c>
+      <c r="B569" s="1" t="str">
+        <v>Text_BillionsOfYears_10</v>
+      </c>
+      <c r="C569" s="1" t="str">
+        <v>10 Billions Of Years</v>
+      </c>
+      <c r="D569" s="1" t="str">
+        <v>十亿万年</v>
+      </c>
       <c r="E569" s="1"/>
       <c r="F569" s="1"/>
       <c r="G569" s="1"/>
@@ -18048,10 +18065,18 @@
       <c r="T569" s="1"/>
     </row>
     <row r="570">
-      <c r="A570" s="1"/>
-      <c r="B570" s="1"/>
-      <c r="C570" s="1"/>
-      <c r="D570" s="1"/>
+      <c r="A570" s="1">
+        <v>566</v>
+      </c>
+      <c r="B570" s="1" t="str">
+        <v>Text_TensOfBillionsOfYears</v>
+      </c>
+      <c r="C570" s="1" t="str">
+        <v>Tens Of Billions Of Years</v>
+      </c>
+      <c r="D570" s="1" t="str">
+        <v>百亿万年</v>
+      </c>
       <c r="E570" s="1"/>
       <c r="F570" s="1"/>
       <c r="G570" s="1"/>
@@ -18070,10 +18095,18 @@
       <c r="T570" s="1"/>
     </row>
     <row r="571">
-      <c r="A571" s="1"/>
-      <c r="B571" s="1"/>
-      <c r="C571" s="1"/>
-      <c r="D571" s="1"/>
+      <c r="A571" s="1">
+        <v>567</v>
+      </c>
+      <c r="B571" s="1" t="str">
+        <v>Text_HundredsOfBillionsOfYears</v>
+      </c>
+      <c r="C571" s="1" t="str">
+        <v>Hundreds Of Billions Of Years</v>
+      </c>
+      <c r="D571" s="1" t="str">
+        <v>千亿万年</v>
+      </c>
       <c r="E571" s="1"/>
       <c r="F571" s="1"/>
       <c r="G571" s="1"/>

--- a/infinite/Excel/Language_Multiple.xlsx
+++ b/infinite/Excel/Language_Multiple.xlsx
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -51,14 +51,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF667901"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF7F3BF5"/>
+      <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -72,7 +65,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF1F2329"/>
+      <color rgb="FF667901"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,7 +93,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFF01D94"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7F3BF5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,6 +108,14 @@
     <font>
       <sz val="9"/>
       <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,7 +136,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF01D94"/>
+      <color rgb="FF270561"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,16 +149,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF270561"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -163,7 +170,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -280,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -306,28 +320,31 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="0" fontId="15" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="0" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,25 +694,25 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="21" r="1">
-      <c r="A1" s="14" t="str">
+      <c r="A1" s="11" t="str">
         <v>int</v>
       </c>
-      <c r="B1" s="14" t="str">
+      <c r="B1" s="11" t="str">
         <v>string</v>
       </c>
-      <c r="C1" s="14" t="str">
+      <c r="C1" s="11" t="str">
         <v>string</v>
       </c>
-      <c r="D1" s="14" t="str">
+      <c r="D1" s="11" t="str">
         <v>string</v>
       </c>
-      <c r="E1" s="14" t="str">
+      <c r="E1" s="11" t="str">
         <v>string</v>
       </c>
-      <c r="F1" s="14" t="str">
+      <c r="F1" s="11" t="str">
         <v>string</v>
       </c>
-      <c r="G1" s="14" t="str">
+      <c r="G1" s="11" t="str">
         <v>string</v>
       </c>
       <c r="H1" s="1"/>
@@ -713,25 +730,25 @@
       <c r="T1" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="2">
-      <c r="A2" s="14" t="str">
+      <c r="A2" s="11" t="str">
         <v>Id</v>
       </c>
-      <c r="B2" s="14" t="str">
+      <c r="B2" s="11" t="str">
         <v>Name</v>
       </c>
-      <c r="C2" s="14" t="str">
+      <c r="C2" s="11" t="str">
         <v>Value</v>
       </c>
-      <c r="D2" s="14" t="str">
+      <c r="D2" s="11" t="str">
         <v>Value_Ch</v>
       </c>
-      <c r="E2" s="14" t="str">
+      <c r="E2" s="11" t="str">
         <v>Value_Cht</v>
       </c>
-      <c r="F2" s="14" t="str">
+      <c r="F2" s="11" t="str">
         <v>Value_J</v>
       </c>
-      <c r="G2" s="14" t="str">
+      <c r="G2" s="11" t="str">
         <v>Value_K</v>
       </c>
       <c r="H2" s="1"/>
@@ -749,25 +766,25 @@
       <c r="T2" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="3">
-      <c r="A3" s="14" t="str">
+      <c r="A3" s="11" t="str">
         <v>唯一标识</v>
       </c>
-      <c r="B3" s="14" t="str">
+      <c r="B3" s="11" t="str">
         <v>名字</v>
       </c>
-      <c r="C3" s="14" t="str">
+      <c r="C3" s="11" t="str">
         <v>英文</v>
       </c>
-      <c r="D3" s="14" t="str">
+      <c r="D3" s="11" t="str">
         <v>中文</v>
       </c>
-      <c r="E3" s="14" t="str">
+      <c r="E3" s="11" t="str">
         <v>繁中</v>
       </c>
-      <c r="F3" s="14" t="str">
+      <c r="F3" s="11" t="str">
         <v>日语</v>
       </c>
-      <c r="G3" s="14" t="str">
+      <c r="G3" s="11" t="str">
         <v>韩语</v>
       </c>
       <c r="H3" s="1"/>
@@ -785,23 +802,23 @@
       <c r="T3" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="4">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14" t="str">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="str">
         <v>Key|ReadByName</v>
       </c>
-      <c r="C4" s="14" t="str">
+      <c r="C4" s="11" t="str">
         <v>MainLanguage</v>
       </c>
-      <c r="D4" s="14" t="str">
+      <c r="D4" s="11" t="str">
         <v>ChildLanguage</v>
       </c>
-      <c r="E4" s="14" t="str">
+      <c r="E4" s="11" t="str">
         <v>ChildLanguage</v>
       </c>
-      <c r="F4" s="14" t="str">
+      <c r="F4" s="11" t="str">
         <v>ChildLanguage</v>
       </c>
-      <c r="G4" s="14" t="str">
+      <c r="G4" s="11" t="str">
         <v>ChildLanguage</v>
       </c>
       <c r="H4" s="1"/>
@@ -3280,7 +3297,7 @@
       <c r="C79" s="1" t="str">
         <v>Automatic Attack Fist (Male)</v>
       </c>
-      <c r="D79" s="15" t="str">
+      <c r="D79" s="14" t="str">
         <v>自动攻击拳(男)</v>
       </c>
       <c r="E79" s="1"/>
@@ -3310,7 +3327,7 @@
       <c r="C80" s="1" t="str">
         <v>Automatic Attack Fist (Female)</v>
       </c>
-      <c r="D80" s="15" t="str">
+      <c r="D80" s="14" t="str">
         <v>自动攻击拳(女)</v>
       </c>
       <c r="E80" s="1"/>
@@ -3490,7 +3507,7 @@
       <c r="C86" s="1" t="str">
         <v>Trident Of The Sea God</v>
       </c>
-      <c r="D86" s="3" t="str">
+      <c r="D86" s="9" t="str">
         <v>海神三叉戟</v>
       </c>
       <c r="E86" s="1"/>
@@ -3520,7 +3537,7 @@
       <c r="C87" s="1" t="str">
         <v>Cyber Comes With A Long Spear</v>
       </c>
-      <c r="D87" s="3" t="str">
+      <c r="D87" s="9" t="str">
         <v>赛博自来也长枪</v>
       </c>
       <c r="E87" s="1"/>
@@ -3550,7 +3567,7 @@
       <c r="C88" s="1" t="str">
         <v>Sea King Double Headed Knife</v>
       </c>
-      <c r="D88" s="3" t="str">
+      <c r="D88" s="9" t="str">
         <v>海王双头刀</v>
       </c>
       <c r="E88" s="1"/>
@@ -3730,7 +3747,7 @@
       <c r="C94" s="1" t="str">
         <v>Forest Sentinel Magic Battle</v>
       </c>
-      <c r="D94" s="2" t="str">
+      <c r="D94" s="4" t="str">
         <v>森林哨兵魔法仗</v>
       </c>
       <c r="E94" s="1"/>
@@ -3760,7 +3777,7 @@
       <c r="C95" s="1" t="str">
         <v>Pistol (Sonic Specific)</v>
       </c>
-      <c r="D95" s="2" t="str">
+      <c r="D95" s="4" t="str">
         <v>手枪
 索尼克专用</v>
       </c>
@@ -3792,7 +3809,7 @@
         <v>Signal Gun
 Specifically For Pink Hair Monster</v>
       </c>
-      <c r="D96" s="2" t="str">
+      <c r="D96" s="4" t="str">
         <v>信号枪
 粉毛怪专用</v>
       </c>
@@ -3823,7 +3840,7 @@
       <c r="C97" s="1" t="str">
         <v>Knife (For Tsunade)</v>
       </c>
-      <c r="D97" s="2" t="str">
+      <c r="D97" s="4" t="str">
         <v>刀(纲手专用)</v>
       </c>
       <c r="E97" s="1"/>
@@ -3853,7 +3870,7 @@
       <c r="C98" s="1" t="str">
         <v>Knife (Exclusive To Lilock)</v>
       </c>
-      <c r="D98" s="12" t="str">
+      <c r="D98" s="8" t="str">
         <v>刀(李洛克专用)</v>
       </c>
       <c r="E98" s="1"/>
@@ -3884,7 +3901,7 @@
         <v>Sickle
 For Dried Persimmon Ghost Shark</v>
       </c>
-      <c r="D99" s="2" t="str">
+      <c r="D99" s="4" t="str">
         <v>镰刀
 干柿鬼鲛专用</v>
       </c>
@@ -3916,7 +3933,7 @@
         <v>Sickle
 Exclusively For Cyber Girls</v>
       </c>
-      <c r="D100" s="2" t="str">
+      <c r="D100" s="4" t="str">
         <v>镰刀
 赛博女孩专用</v>
       </c>
@@ -3948,7 +3965,7 @@
         <v>Ice Sword
 Exclusively For Black Widow</v>
       </c>
-      <c r="D101" s="2" t="str">
+      <c r="D101" s="4" t="str">
         <v>冰封剑
 黑寡妇专用</v>
       </c>
@@ -3979,7 +3996,7 @@
       <c r="C102" s="1" t="str">
         <v>Monster Claw Knife</v>
       </c>
-      <c r="D102" s="12" t="str">
+      <c r="D102" s="8" t="str">
         <v>怪物爪刀</v>
       </c>
       <c r="E102" s="1"/>
@@ -4009,7 +4026,7 @@
       <c r="C103" s="1" t="str">
         <v>Machete (Kakashi Specific)</v>
       </c>
-      <c r="D103" s="2" t="str">
+      <c r="D103" s="4" t="str">
         <v>大砍刀
 卡卡西专用</v>
       </c>
@@ -4318,7 +4335,7 @@
         <v>Fluorescent Sword
 For Volcano Sentinels Only</v>
       </c>
-      <c r="D113" s="13" t="str">
+      <c r="D113" s="15" t="str">
         <v>荧光剑
 火山哨兵专用</v>
       </c>
@@ -4350,7 +4367,7 @@
         <v>Fanatical Sword
 Exclusive To Crimson Witch</v>
       </c>
-      <c r="D114" s="13" t="str">
+      <c r="D114" s="15" t="str">
         <v>狂热剑
 绯红女巫专用</v>
       </c>
@@ -4381,7 +4398,7 @@
       <c r="C115" s="1" t="str">
         <v>Inflatable Hammer</v>
       </c>
-      <c r="D115" s="4" t="str">
+      <c r="D115" s="3" t="str">
         <v>充气锤子</v>
       </c>
       <c r="E115" s="1"/>
@@ -4412,7 +4429,7 @@
         <v>Wooden Staff
 Venom Spider Man Specific</v>
       </c>
-      <c r="D116" s="4" t="str">
+      <c r="D116" s="3" t="str">
         <v>木法杖
 毒液蜘蛛侠专用</v>
       </c>
@@ -4443,7 +4460,7 @@
       <c r="C117" s="1" t="str">
         <v>Guazi Shield</v>
       </c>
-      <c r="D117" s="4" t="str">
+      <c r="D117" s="3" t="str">
         <v>瓜子盾</v>
       </c>
       <c r="E117" s="1"/>
@@ -4473,7 +4490,7 @@
       <c r="C118" s="1" t="str">
         <v>Shield (Hulk Exclusive)</v>
       </c>
-      <c r="D118" s="4" t="str">
+      <c r="D118" s="3" t="str">
         <v>盾(浩克专用)</v>
       </c>
       <c r="E118" s="1"/>
@@ -4503,7 +4520,7 @@
       <c r="C119" s="1" t="str">
         <v>Ultimate Ice Ring Sword</v>
       </c>
-      <c r="D119" s="2" t="str">
+      <c r="D119" s="4" t="str">
         <v>终极冰环剑</v>
       </c>
       <c r="E119" s="1"/>
@@ -4533,7 +4550,7 @@
       <c r="C120" s="1" t="str">
         <v>Bullet Spray Gun (For Hinata)</v>
       </c>
-      <c r="D120" s="2" t="str">
+      <c r="D120" s="4" t="str">
         <v>散弹喷枪
 雏田专用</v>
       </c>
@@ -4564,7 +4581,7 @@
       <c r="C121" s="1" t="str">
         <v>Firearms (Luffy Specific)</v>
       </c>
-      <c r="D121" s="2" t="str">
+      <c r="D121" s="4" t="str">
         <v>火枪(路飞专用)</v>
       </c>
       <c r="E121" s="1"/>
@@ -4595,7 +4612,7 @@
         <v>Purple Light Sword
 Special For Sasuke</v>
       </c>
-      <c r="D122" s="2" t="str">
+      <c r="D122" s="4" t="str">
         <v>紫光剑
 佐助专用</v>
       </c>
@@ -4626,7 +4643,7 @@
       <c r="C123" s="1" t="str">
         <v>Laser Gun (Tenjin Specific)</v>
       </c>
-      <c r="D123" s="2" t="str">
+      <c r="D123" s="4" t="str">
         <v>激光枪(天神专用)</v>
       </c>
       <c r="E123" s="1"/>
@@ -4657,7 +4674,7 @@
         <v>Sword
 Exclusively For Wolverine</v>
       </c>
-      <c r="D124" s="4" t="str">
+      <c r="D124" s="3" t="str">
         <v>剑(金刚狼专用)</v>
       </c>
       <c r="E124" s="1"/>
@@ -4687,7 +4704,7 @@
       <c r="C125" s="1" t="str">
         <v>Laser Gun (Iron Man Specific)</v>
       </c>
-      <c r="D125" s="4" t="str">
+      <c r="D125" s="3" t="str">
         <v>激光枪(钢铁侠专用)</v>
       </c>
       <c r="E125" s="1"/>
@@ -4717,7 +4734,7 @@
       <c r="C126" s="1" t="str">
         <v>Couple Mech Set (Female)</v>
       </c>
-      <c r="D126" s="4" t="str">
+      <c r="D126" s="3" t="str">
         <v>情侣机甲套装(女)</v>
       </c>
       <c r="E126" s="1"/>
@@ -4747,7 +4764,7 @@
       <c r="C127" s="1" t="str">
         <v>Couple Mech Set (Male)</v>
       </c>
-      <c r="D127" s="4" t="str">
+      <c r="D127" s="3" t="str">
         <v>情侣机甲套装(男)</v>
       </c>
       <c r="E127" s="1"/>
@@ -10975,31 +10992,31 @@
       <c r="A334" s="1">
         <v>330</v>
       </c>
-      <c r="B334" s="11" t="str">
+      <c r="B334" s="5" t="str">
         <v>Text_Guid_28</v>
       </c>
-      <c r="C334" s="11" t="str">
+      <c r="C334" s="5" t="str">
         <v>Forge Soul Bones</v>
       </c>
-      <c r="D334" s="8" t="str">
+      <c r="D334" s="13" t="str">
         <v>锻造魂骨</v>
       </c>
-      <c r="E334" s="11"/>
-      <c r="F334" s="11"/>
-      <c r="G334" s="11"/>
-      <c r="H334" s="11"/>
-      <c r="I334" s="11"/>
-      <c r="J334" s="11"/>
-      <c r="K334" s="11"/>
-      <c r="L334" s="11"/>
-      <c r="M334" s="11"/>
-      <c r="N334" s="11"/>
-      <c r="O334" s="11"/>
-      <c r="P334" s="11"/>
-      <c r="Q334" s="11"/>
-      <c r="R334" s="11"/>
-      <c r="S334" s="11"/>
-      <c r="T334" s="11"/>
+      <c r="E334" s="5"/>
+      <c r="F334" s="5"/>
+      <c r="G334" s="5"/>
+      <c r="H334" s="5"/>
+      <c r="I334" s="5"/>
+      <c r="J334" s="5"/>
+      <c r="K334" s="5"/>
+      <c r="L334" s="5"/>
+      <c r="M334" s="5"/>
+      <c r="N334" s="5"/>
+      <c r="O334" s="5"/>
+      <c r="P334" s="5"/>
+      <c r="Q334" s="5"/>
+      <c r="R334" s="5"/>
+      <c r="S334" s="5"/>
+      <c r="T334" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="335">
       <c r="A335" s="1">
@@ -15159,7 +15176,7 @@
       <c r="C473" s="1" t="str">
         <v>Daily Login To Games（{0}/{1}）</v>
       </c>
-      <c r="D473" s="5" t="str">
+      <c r="D473" s="2" t="str">
         <v>每日登陆游戏（{0}/{1}）</v>
       </c>
       <c r="E473" s="1"/>
@@ -15189,7 +15206,7 @@
       <c r="C474" s="1" t="str">
         <v>Daily Online {2} Minutes（{0}/{1}）</v>
       </c>
-      <c r="D474" s="5" t="str">
+      <c r="D474" s="2" t="str">
         <v>每日在线时长{2}分钟（{0}/{1}）</v>
       </c>
       <c r="E474" s="1"/>
@@ -15219,7 +15236,7 @@
       <c r="C475" s="1" t="str">
         <v>Defeat {2} Medusa Every Day（{0}/{1}）</v>
       </c>
-      <c r="D475" s="5" t="str">
+      <c r="D475" s="2" t="str">
         <v>每日击败{2}只美杜莎（{0}/{1}）</v>
       </c>
       <c r="E475" s="1"/>
@@ -15249,7 +15266,7 @@
       <c r="C476" s="1" t="str">
         <v>Defeat {2} Spider Spirits Daily（{0}/{1}）</v>
       </c>
-      <c r="D476" s="5" t="str">
+      <c r="D476" s="2" t="str">
         <v>每日击败{2}只蜘蛛精（{0}/{1}）</v>
       </c>
       <c r="E476" s="1"/>
@@ -15279,7 +15296,7 @@
       <c r="C477" s="1" t="str">
         <v>Defeat {2} Dazzling Spiders Daily（{0}/{1}）</v>
       </c>
-      <c r="D477" s="5" t="str">
+      <c r="D477" s="2" t="str">
         <v>每日击败{2}只炫彩蜘蛛（{0}/{1}）</v>
       </c>
       <c r="E477" s="1"/>
@@ -15309,7 +15326,7 @@
       <c r="C478" s="1" t="str">
         <v>Defeat {2} Dragon Beasts Daily（{0}/{1}）</v>
       </c>
-      <c r="D478" s="5" t="str">
+      <c r="D478" s="2" t="str">
         <v>每日击败{2}只龙兽（{0}/{1}）</v>
       </c>
       <c r="E478" s="1"/>
@@ -15339,7 +15356,7 @@
       <c r="C479" s="1" t="str">
         <v>Defeat {2} Zombies Daily（{0}/{1}）</v>
       </c>
-      <c r="D479" s="5" t="str">
+      <c r="D479" s="2" t="str">
         <v>每日击败{2}只丧尸（{0}/{1}）</v>
       </c>
       <c r="E479" s="1"/>
@@ -15369,7 +15386,7 @@
       <c r="C480" s="1" t="str">
         <v>Defeat {2} Mutated Puppets Daily（{0}/{1}）</v>
       </c>
-      <c r="D480" s="5" t="str">
+      <c r="D480" s="2" t="str">
         <v>每日击败{2}只变异布偶（{0}/{1}）</v>
       </c>
       <c r="E480" s="1"/>
@@ -15399,7 +15416,7 @@
       <c r="C481" s="1" t="str">
         <v>Defeat {2} Players Daily（{0}/{1}）</v>
       </c>
-      <c r="D481" s="5" t="str">
+      <c r="D481" s="2" t="str">
         <v>每日击败{2}名玩家（{0}/{1}）</v>
       </c>
       <c r="E481" s="1"/>
@@ -15429,7 +15446,7 @@
       <c r="C482" s="1" t="str">
         <v>Daily Level Increase By {2} Levels（{0}/{1}）</v>
       </c>
-      <c r="D482" s="5" t="str">
+      <c r="D482" s="2" t="str">
         <v>每日等级提升{2}级（{0}/{1}）</v>
       </c>
       <c r="E482" s="1"/>
@@ -15459,7 +15476,7 @@
       <c r="C483" s="1" t="str">
         <v>Pick Up {2} Treasures Every Day（{0}/{1}）</v>
       </c>
-      <c r="D483" s="5" t="str">
+      <c r="D483" s="2" t="str">
         <v>每日捡到{2}个秘宝（{0}/{1}）</v>
       </c>
       <c r="E483" s="1"/>
@@ -15489,7 +15506,7 @@
       <c r="C484" s="1" t="str">
         <v>Watch {2} Ads Per Day（{0}/{1}）</v>
       </c>
-      <c r="D484" s="5" t="str">
+      <c r="D484" s="2" t="str">
         <v>每日观看{2}次广告（{0}/{1}）</v>
       </c>
       <c r="E484" s="1"/>
@@ -15519,7 +15536,7 @@
       <c r="C485" s="1" t="str">
         <v>Login {2} Days A Week（{0}/{1}）</v>
       </c>
-      <c r="D485" s="5" t="str">
+      <c r="D485" s="2" t="str">
         <v>每周登录{2}天（{0}/{1}）</v>
       </c>
       <c r="E485" s="1"/>
@@ -15549,7 +15566,7 @@
       <c r="C486" s="1" t="str">
         <v>Up To 30 Minutes And {2} Days Per Week（{0}/{1}）</v>
       </c>
-      <c r="D486" s="5" t="str">
+      <c r="D486" s="2" t="str">
         <v>每周时长达到30分钟{2}天（{0}/{1}）</v>
       </c>
       <c r="E486" s="1"/>
@@ -15579,7 +15596,7 @@
       <c r="C487" s="1" t="str">
         <v>Defeat {2} Medusa Every Week（{0}/{1}）</v>
       </c>
-      <c r="D487" s="5" t="str">
+      <c r="D487" s="2" t="str">
         <v>每周击败{2}只美杜莎（{0}/{1}）</v>
       </c>
       <c r="E487" s="1"/>
@@ -15609,7 +15626,7 @@
       <c r="C488" s="1" t="str">
         <v>Defeat {2} Spider Spirits Every Week（{0}/{1}）</v>
       </c>
-      <c r="D488" s="5" t="str">
+      <c r="D488" s="2" t="str">
         <v>每周击败{2}只蜘蛛精（{0}/{1}）</v>
       </c>
       <c r="E488" s="1"/>
@@ -15639,7 +15656,7 @@
       <c r="C489" s="1" t="str">
         <v>Defeat {2} Dazzling Spiders Every Week（{0}/{1}）</v>
       </c>
-      <c r="D489" s="5" t="str">
+      <c r="D489" s="2" t="str">
         <v>每周击败{2}只炫彩蜘蛛（{0}/{1}）</v>
       </c>
       <c r="E489" s="1"/>
@@ -15669,7 +15686,7 @@
       <c r="C490" s="1" t="str">
         <v>Defeat {2} Dragon Beasts Every Week（{0}/{1}）</v>
       </c>
-      <c r="D490" s="5" t="str">
+      <c r="D490" s="2" t="str">
         <v>每周击败{2}只龙兽（{0}/{1}）</v>
       </c>
       <c r="E490" s="1"/>
@@ -15699,7 +15716,7 @@
       <c r="C491" s="1" t="str">
         <v>Defeat {2} Zombies Every Week（{0}/{1}）</v>
       </c>
-      <c r="D491" s="5" t="str">
+      <c r="D491" s="2" t="str">
         <v>每周击败{2}只丧尸（{0}/{1}）</v>
       </c>
       <c r="E491" s="1"/>
@@ -15729,7 +15746,7 @@
       <c r="C492" s="1" t="str">
         <v>Defeat {2} Mutated Puppets Every Week（{0}/{1}）</v>
       </c>
-      <c r="D492" s="5" t="str">
+      <c r="D492" s="2" t="str">
         <v>每周击败{2}只变异布偶（{0}/{1}）</v>
       </c>
       <c r="E492" s="1"/>
@@ -15759,7 +15776,7 @@
       <c r="C493" s="1" t="str">
         <v>Defeat {2} Players Per Week（{0}/{1}）</v>
       </c>
-      <c r="D493" s="5" t="str">
+      <c r="D493" s="2" t="str">
         <v>每周击败{2}名玩家（{0}/{1}）</v>
       </c>
       <c r="E493" s="1"/>
@@ -15789,7 +15806,7 @@
       <c r="C494" s="1" t="str">
         <v>Upgrade By {2} Levels Per Week（{0}/{1}）</v>
       </c>
-      <c r="D494" s="5" t="str">
+      <c r="D494" s="2" t="str">
         <v>每周等级提升{2}级（{0}/{1}）</v>
       </c>
       <c r="E494" s="1"/>
@@ -15819,7 +15836,7 @@
       <c r="C495" s="1" t="str">
         <v>Pick Up {2} Treasures Every Week（{0}/{1}）</v>
       </c>
-      <c r="D495" s="5" t="str">
+      <c r="D495" s="2" t="str">
         <v>每周捡到{2}个秘宝（{0}/{1}）</v>
       </c>
       <c r="E495" s="1"/>
@@ -15849,7 +15866,7 @@
       <c r="C496" s="1" t="str">
         <v>Watch {2} Ads Per Week（{0}/{1}）</v>
       </c>
-      <c r="D496" s="5" t="str">
+      <c r="D496" s="2" t="str">
         <v>每周观看{2}次广告（{0}/{1}）</v>
       </c>
       <c r="E496" s="1"/>
@@ -16866,10 +16883,10 @@
       <c r="B530" s="1" t="str">
         <v>Text_EternalImmortalEmperor</v>
       </c>
-      <c r="C530" s="10" t="str">
+      <c r="C530" s="12" t="str">
         <v>Eternal Immortal Emperor</v>
       </c>
-      <c r="D530" s="10" t="str">
+      <c r="D530" s="12" t="str">
         <v>万古仙帝</v>
       </c>
       <c r="E530" s="1"/>
@@ -16923,7 +16940,7 @@
       <c r="A532" s="1">
         <v>528</v>
       </c>
-      <c r="B532" s="10" t="str">
+      <c r="B532" s="12" t="str">
         <v>Text_MartialSoulMechSlashWindSlash_Female</v>
       </c>
       <c r="C532" s="1" t="str">
@@ -17353,7 +17370,7 @@
       <c r="C546" s="1" t="str">
         <v>I Will Survive</v>
       </c>
-      <c r="D546" s="9" t="str">
+      <c r="D546" s="10" t="str">
         <v>我会活下去</v>
       </c>
       <c r="E546" s="1"/>
@@ -17563,7 +17580,7 @@
       <c r="C553" s="1" t="str">
         <v>As It Was</v>
       </c>
-      <c r="D553" s="9" t="str">
+      <c r="D553" s="10" t="str">
         <v>事实上</v>
       </c>
       <c r="E553" s="1"/>
@@ -17743,7 +17760,7 @@
       <c r="C559" s="1" t="str">
         <v>Moon</v>
       </c>
-      <c r="D559" s="9" t="str">
+      <c r="D559" s="10" t="str">
         <v>金轮</v>
       </c>
       <c r="E559" s="1"/>
@@ -17980,7 +17997,7 @@
       <c r="B567" s="1" t="str">
         <v>Text_ForgeSoulRings_Button</v>
       </c>
-      <c r="C567" s="8" t="str">
+      <c r="C567" s="13" t="str">
         <v>Forge Soul Rings</v>
       </c>
       <c r="D567" s="1" t="str">
@@ -18007,7 +18024,7 @@
       <c r="A568" s="1">
         <v>564</v>
       </c>
-      <c r="B568" s="8" t="str">
+      <c r="B568" s="13" t="str">
         <v>Text_LotsOfDiamonds</v>
       </c>
       <c r="C568" s="1" t="str">
@@ -18125,10 +18142,18 @@
       <c r="T571" s="1"/>
     </row>
     <row r="572">
-      <c r="A572" s="1"/>
-      <c r="B572" s="1"/>
-      <c r="C572" s="1"/>
-      <c r="D572" s="1"/>
+      <c r="A572" s="5">
+        <v>568</v>
+      </c>
+      <c r="B572" s="5" t="str">
+        <v>Text_ModifyTheTitle</v>
+      </c>
+      <c r="C572" s="5" t="str">
+        <v>Modify The Title</v>
+      </c>
+      <c r="D572" s="5" t="str">
+        <v>修改称号</v>
+      </c>
       <c r="E572" s="1"/>
       <c r="F572" s="1"/>
       <c r="G572" s="1"/>
@@ -18147,10 +18172,20 @@
       <c r="T572" s="1"/>
     </row>
     <row r="573">
-      <c r="A573" s="1"/>
-      <c r="B573" s="1"/>
-      <c r="C573" s="1"/>
-      <c r="D573" s="1"/>
+      <c r="A573" s="5">
+        <v>569</v>
+      </c>
+      <c r="B573" s="5" t="str">
+        <v>Text_TitleNameTips</v>
+      </c>
+      <c r="C573" s="16" t="str">
+        <v>Level reached {0}
+Consuming {1} diamonds modifies the title.</v>
+      </c>
+      <c r="D573" s="16" t="str">
+        <v>等级达到{0}级
+消耗{1}钻石即可修改称号</v>
+      </c>
       <c r="E573" s="1"/>
       <c r="F573" s="1"/>
       <c r="G573" s="1"/>
@@ -18169,10 +18204,18 @@
       <c r="T573" s="1"/>
     </row>
     <row r="574">
-      <c r="A574" s="1"/>
-      <c r="B574" s="1"/>
-      <c r="C574" s="1"/>
-      <c r="D574" s="1"/>
+      <c r="A574" s="5">
+        <v>570</v>
+      </c>
+      <c r="B574" s="5" t="str">
+        <v>Text_PleaseEnterTheTitle</v>
+      </c>
+      <c r="C574" s="5" t="str">
+        <v>Please Enter The Title</v>
+      </c>
+      <c r="D574" s="5" t="str">
+        <v>请输入称号</v>
+      </c>
       <c r="E574" s="1"/>
       <c r="F574" s="1"/>
       <c r="G574" s="1"/>
@@ -18191,10 +18234,18 @@
       <c r="T574" s="1"/>
     </row>
     <row r="575">
-      <c r="A575" s="1"/>
-      <c r="B575" s="1"/>
-      <c r="C575" s="1"/>
-      <c r="D575" s="1"/>
+      <c r="A575" s="5">
+        <v>571</v>
+      </c>
+      <c r="B575" s="5" t="str">
+        <v>Text_ModifiedSuccessfully</v>
+      </c>
+      <c r="C575" s="5" t="str">
+        <v>Modified Successfully</v>
+      </c>
+      <c r="D575" s="5" t="str">
+        <v>修改成功</v>
+      </c>
       <c r="E575" s="1"/>
       <c r="F575" s="1"/>
       <c r="G575" s="1"/>
@@ -18213,10 +18264,18 @@
       <c r="T575" s="1"/>
     </row>
     <row r="576">
-      <c r="A576" s="1"/>
-      <c r="B576" s="1"/>
-      <c r="C576" s="1"/>
-      <c r="D576" s="1"/>
+      <c r="A576" s="5">
+        <v>572</v>
+      </c>
+      <c r="B576" s="5" t="str">
+        <v>Text_RestartTheGameToTakeEffect</v>
+      </c>
+      <c r="C576" s="5" t="str">
+        <v>Restart The Game To Take Effect</v>
+      </c>
+      <c r="D576" s="5" t="str">
+        <v>重启游戏即可生效</v>
+      </c>
       <c r="E576" s="1"/>
       <c r="F576" s="1"/>
       <c r="G576" s="1"/>
@@ -18235,10 +18294,18 @@
       <c r="T576" s="1"/>
     </row>
     <row r="577">
-      <c r="A577" s="1"/>
-      <c r="B577" s="1"/>
-      <c r="C577" s="1"/>
-      <c r="D577" s="1"/>
+      <c r="A577" s="5">
+        <v>573</v>
+      </c>
+      <c r="B577" s="1" t="str">
+        <v>Text_FlashSales</v>
+      </c>
+      <c r="C577" s="1" t="str">
+        <v>Flash Sales</v>
+      </c>
+      <c r="D577" s="1" t="str">
+        <v>限时特惠</v>
+      </c>
       <c r="E577" s="1"/>
       <c r="F577" s="1"/>
       <c r="G577" s="1"/>
@@ -18257,10 +18324,18 @@
       <c r="T577" s="1"/>
     </row>
     <row r="578">
-      <c r="A578" s="1"/>
-      <c r="B578" s="1"/>
-      <c r="C578" s="1"/>
-      <c r="D578" s="1"/>
+      <c r="A578" s="5">
+        <v>574</v>
+      </c>
+      <c r="B578" s="1" t="str">
+        <v>Text_ConsumeTeamCoins</v>
+      </c>
+      <c r="C578" s="1" t="str">
+        <v>Consume {0} Team Coins</v>
+      </c>
+      <c r="D578" s="1" t="str">
+        <v>消耗{0}派队币</v>
+      </c>
       <c r="E578" s="1"/>
       <c r="F578" s="1"/>
       <c r="G578" s="1"/>
@@ -18279,10 +18354,24 @@
       <c r="T578" s="1"/>
     </row>
     <row r="579">
-      <c r="A579" s="1"/>
-      <c r="B579" s="1"/>
-      <c r="C579" s="1"/>
-      <c r="D579" s="1"/>
+      <c r="A579" s="5">
+        <v>575</v>
+      </c>
+      <c r="B579" s="1" t="str">
+        <v>Text_FlashTips</v>
+      </c>
+      <c r="C579" s="1" t="str">
+        <v>Diamond +{0}
+Soul Bone Fragment +{1}
+Gold +{2}
+Is Equal To {3} 100 Draws.</v>
+      </c>
+      <c r="D579" s="1" t="str">
+        <v>钻石+{0}
+魂骨碎片+{1}
+金币+{2} 
+等于 {3}次100连抽</v>
+      </c>
       <c r="E579" s="1"/>
       <c r="F579" s="1"/>
       <c r="G579" s="1"/>

--- a/infinite/Excel/Language_Multiple.xlsx
+++ b/infinite/Excel/Language_Multiple.xlsx
@@ -51,27 +51,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF34C724"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF667901"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -93,14 +72,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF01D94"/>
+      <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF7F3BF5"/>
+      <color rgb="FF667901"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,6 +87,20 @@
     <font>
       <sz val="9"/>
       <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF34C724"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,7 +122,21 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF7F3BF5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF14BA9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF01D94"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,13 +144,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FF270561"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF14BA9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -302,7 +302,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -314,28 +314,28 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -694,25 +694,25 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="21" r="1">
-      <c r="A1" s="11" t="str">
+      <c r="A1" s="10" t="str">
         <v>int</v>
       </c>
-      <c r="B1" s="11" t="str">
+      <c r="B1" s="10" t="str">
         <v>string</v>
       </c>
-      <c r="C1" s="11" t="str">
+      <c r="C1" s="10" t="str">
         <v>string</v>
       </c>
-      <c r="D1" s="11" t="str">
+      <c r="D1" s="10" t="str">
         <v>string</v>
       </c>
-      <c r="E1" s="11" t="str">
+      <c r="E1" s="10" t="str">
         <v>string</v>
       </c>
-      <c r="F1" s="11" t="str">
+      <c r="F1" s="10" t="str">
         <v>string</v>
       </c>
-      <c r="G1" s="11" t="str">
+      <c r="G1" s="10" t="str">
         <v>string</v>
       </c>
       <c r="H1" s="1"/>
@@ -730,25 +730,25 @@
       <c r="T1" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="2">
-      <c r="A2" s="11" t="str">
+      <c r="A2" s="10" t="str">
         <v>Id</v>
       </c>
-      <c r="B2" s="11" t="str">
+      <c r="B2" s="10" t="str">
         <v>Name</v>
       </c>
-      <c r="C2" s="11" t="str">
+      <c r="C2" s="10" t="str">
         <v>Value</v>
       </c>
-      <c r="D2" s="11" t="str">
+      <c r="D2" s="10" t="str">
         <v>Value_Ch</v>
       </c>
-      <c r="E2" s="11" t="str">
+      <c r="E2" s="10" t="str">
         <v>Value_Cht</v>
       </c>
-      <c r="F2" s="11" t="str">
+      <c r="F2" s="10" t="str">
         <v>Value_J</v>
       </c>
-      <c r="G2" s="11" t="str">
+      <c r="G2" s="10" t="str">
         <v>Value_K</v>
       </c>
       <c r="H2" s="1"/>
@@ -766,25 +766,25 @@
       <c r="T2" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="3">
-      <c r="A3" s="11" t="str">
+      <c r="A3" s="10" t="str">
         <v>唯一标识</v>
       </c>
-      <c r="B3" s="11" t="str">
+      <c r="B3" s="10" t="str">
         <v>名字</v>
       </c>
-      <c r="C3" s="11" t="str">
+      <c r="C3" s="10" t="str">
         <v>英文</v>
       </c>
-      <c r="D3" s="11" t="str">
+      <c r="D3" s="10" t="str">
         <v>中文</v>
       </c>
-      <c r="E3" s="11" t="str">
+      <c r="E3" s="10" t="str">
         <v>繁中</v>
       </c>
-      <c r="F3" s="11" t="str">
+      <c r="F3" s="10" t="str">
         <v>日语</v>
       </c>
-      <c r="G3" s="11" t="str">
+      <c r="G3" s="10" t="str">
         <v>韩语</v>
       </c>
       <c r="H3" s="1"/>
@@ -802,23 +802,23 @@
       <c r="T3" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11" t="str">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="str">
         <v>Key|ReadByName</v>
       </c>
-      <c r="C4" s="11" t="str">
+      <c r="C4" s="10" t="str">
         <v>MainLanguage</v>
       </c>
-      <c r="D4" s="11" t="str">
+      <c r="D4" s="10" t="str">
         <v>ChildLanguage</v>
       </c>
-      <c r="E4" s="11" t="str">
+      <c r="E4" s="10" t="str">
         <v>ChildLanguage</v>
       </c>
-      <c r="F4" s="11" t="str">
+      <c r="F4" s="10" t="str">
         <v>ChildLanguage</v>
       </c>
-      <c r="G4" s="11" t="str">
+      <c r="G4" s="10" t="str">
         <v>ChildLanguage</v>
       </c>
       <c r="H4" s="1"/>
@@ -3297,7 +3297,7 @@
       <c r="C79" s="1" t="str">
         <v>Automatic Attack Fist (Male)</v>
       </c>
-      <c r="D79" s="14" t="str">
+      <c r="D79" s="15" t="str">
         <v>自动攻击拳(男)</v>
       </c>
       <c r="E79" s="1"/>
@@ -3327,7 +3327,7 @@
       <c r="C80" s="1" t="str">
         <v>Automatic Attack Fist (Female)</v>
       </c>
-      <c r="D80" s="14" t="str">
+      <c r="D80" s="15" t="str">
         <v>自动攻击拳(女)</v>
       </c>
       <c r="E80" s="1"/>
@@ -3507,7 +3507,7 @@
       <c r="C86" s="1" t="str">
         <v>Trident Of The Sea God</v>
       </c>
-      <c r="D86" s="9" t="str">
+      <c r="D86" s="12" t="str">
         <v>海神三叉戟</v>
       </c>
       <c r="E86" s="1"/>
@@ -3537,7 +3537,7 @@
       <c r="C87" s="1" t="str">
         <v>Cyber Comes With A Long Spear</v>
       </c>
-      <c r="D87" s="9" t="str">
+      <c r="D87" s="12" t="str">
         <v>赛博自来也长枪</v>
       </c>
       <c r="E87" s="1"/>
@@ -3567,7 +3567,7 @@
       <c r="C88" s="1" t="str">
         <v>Sea King Double Headed Knife</v>
       </c>
-      <c r="D88" s="9" t="str">
+      <c r="D88" s="12" t="str">
         <v>海王双头刀</v>
       </c>
       <c r="E88" s="1"/>
@@ -3597,7 +3597,7 @@
       <c r="C89" s="1" t="str">
         <v>Captain America'S Hammer</v>
       </c>
-      <c r="D89" s="7" t="str">
+      <c r="D89" s="4" t="str">
         <v>美国队长神锤</v>
       </c>
       <c r="E89" s="1"/>
@@ -3627,7 +3627,7 @@
       <c r="C90" s="1" t="str">
         <v>Venom Axe</v>
       </c>
-      <c r="D90" s="7" t="str">
+      <c r="D90" s="4" t="str">
         <v>毒液斧头</v>
       </c>
       <c r="E90" s="1"/>
@@ -3657,7 +3657,7 @@
       <c r="C91" s="1" t="str">
         <v>Mieba Axe</v>
       </c>
-      <c r="D91" s="7" t="str">
+      <c r="D91" s="4" t="str">
         <v>灭霸斧</v>
       </c>
       <c r="E91" s="1"/>
@@ -3687,7 +3687,7 @@
       <c r="C92" s="1" t="str">
         <v>Naruto Wielding A Sword</v>
       </c>
-      <c r="D92" s="7" t="str">
+      <c r="D92" s="4" t="str">
         <v>鸣人手里剑</v>
       </c>
       <c r="E92" s="1"/>
@@ -3717,7 +3717,7 @@
       <c r="C93" s="1" t="str">
         <v>Future Warrior Golden Sword</v>
       </c>
-      <c r="D93" s="7" t="str">
+      <c r="D93" s="4" t="str">
         <v>未来战士黄金剑</v>
       </c>
       <c r="E93" s="1"/>
@@ -3747,7 +3747,7 @@
       <c r="C94" s="1" t="str">
         <v>Forest Sentinel Magic Battle</v>
       </c>
-      <c r="D94" s="4" t="str">
+      <c r="D94" s="6" t="str">
         <v>森林哨兵魔法仗</v>
       </c>
       <c r="E94" s="1"/>
@@ -3777,7 +3777,7 @@
       <c r="C95" s="1" t="str">
         <v>Pistol (Sonic Specific)</v>
       </c>
-      <c r="D95" s="4" t="str">
+      <c r="D95" s="6" t="str">
         <v>手枪
 索尼克专用</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>Signal Gun
 Specifically For Pink Hair Monster</v>
       </c>
-      <c r="D96" s="4" t="str">
+      <c r="D96" s="6" t="str">
         <v>信号枪
 粉毛怪专用</v>
       </c>
@@ -3840,7 +3840,7 @@
       <c r="C97" s="1" t="str">
         <v>Knife (For Tsunade)</v>
       </c>
-      <c r="D97" s="4" t="str">
+      <c r="D97" s="6" t="str">
         <v>刀(纲手专用)</v>
       </c>
       <c r="E97" s="1"/>
@@ -3870,7 +3870,7 @@
       <c r="C98" s="1" t="str">
         <v>Knife (Exclusive To Lilock)</v>
       </c>
-      <c r="D98" s="8" t="str">
+      <c r="D98" s="14" t="str">
         <v>刀(李洛克专用)</v>
       </c>
       <c r="E98" s="1"/>
@@ -3901,7 +3901,7 @@
         <v>Sickle
 For Dried Persimmon Ghost Shark</v>
       </c>
-      <c r="D99" s="4" t="str">
+      <c r="D99" s="6" t="str">
         <v>镰刀
 干柿鬼鲛专用</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>Sickle
 Exclusively For Cyber Girls</v>
       </c>
-      <c r="D100" s="4" t="str">
+      <c r="D100" s="6" t="str">
         <v>镰刀
 赛博女孩专用</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>Ice Sword
 Exclusively For Black Widow</v>
       </c>
-      <c r="D101" s="4" t="str">
+      <c r="D101" s="6" t="str">
         <v>冰封剑
 黑寡妇专用</v>
       </c>
@@ -3996,7 +3996,7 @@
       <c r="C102" s="1" t="str">
         <v>Monster Claw Knife</v>
       </c>
-      <c r="D102" s="8" t="str">
+      <c r="D102" s="14" t="str">
         <v>怪物爪刀</v>
       </c>
       <c r="E102" s="1"/>
@@ -4026,7 +4026,7 @@
       <c r="C103" s="1" t="str">
         <v>Machete (Kakashi Specific)</v>
       </c>
-      <c r="D103" s="4" t="str">
+      <c r="D103" s="6" t="str">
         <v>大砍刀
 卡卡西专用</v>
       </c>
@@ -4179,7 +4179,7 @@
       <c r="C108" s="1" t="str">
         <v>Blue Staff (Loki Specific)</v>
       </c>
-      <c r="D108" s="7" t="str">
+      <c r="D108" s="4" t="str">
         <v>蓝色法杖
 洛基专用</v>
       </c>
@@ -4210,7 +4210,7 @@
       <c r="C109" s="1" t="str">
         <v>Sickle (Sun God Exclusive)</v>
       </c>
-      <c r="D109" s="7" t="str">
+      <c r="D109" s="4" t="str">
         <v>镰刀
 太阳神专用</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>Demon Sword
 Exclusively For Uchiha Madara</v>
       </c>
-      <c r="D110" s="7" t="str">
+      <c r="D110" s="4" t="str">
         <v>恶魔剑
 宇智波斑爷专用</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>Sword
 Specifically Designed For Nanorobots</v>
       </c>
-      <c r="D111" s="7" t="str">
+      <c r="D111" s="4" t="str">
         <v>剑(纳米机器人专用)</v>
       </c>
       <c r="E111" s="1"/>
@@ -4304,7 +4304,7 @@
       <c r="C112" s="1" t="str">
         <v>Sickle (Deadpool Specific)</v>
       </c>
-      <c r="D112" s="7" t="str">
+      <c r="D112" s="4" t="str">
         <v>镰刀(死侍专用)</v>
       </c>
       <c r="E112" s="1"/>
@@ -4335,7 +4335,7 @@
         <v>Fluorescent Sword
 For Volcano Sentinels Only</v>
       </c>
-      <c r="D113" s="15" t="str">
+      <c r="D113" s="13" t="str">
         <v>荧光剑
 火山哨兵专用</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>Fanatical Sword
 Exclusive To Crimson Witch</v>
       </c>
-      <c r="D114" s="15" t="str">
+      <c r="D114" s="13" t="str">
         <v>狂热剑
 绯红女巫专用</v>
       </c>
@@ -4398,7 +4398,7 @@
       <c r="C115" s="1" t="str">
         <v>Inflatable Hammer</v>
       </c>
-      <c r="D115" s="3" t="str">
+      <c r="D115" s="9" t="str">
         <v>充气锤子</v>
       </c>
       <c r="E115" s="1"/>
@@ -4429,7 +4429,7 @@
         <v>Wooden Staff
 Venom Spider Man Specific</v>
       </c>
-      <c r="D116" s="3" t="str">
+      <c r="D116" s="9" t="str">
         <v>木法杖
 毒液蜘蛛侠专用</v>
       </c>
@@ -4460,7 +4460,7 @@
       <c r="C117" s="1" t="str">
         <v>Guazi Shield</v>
       </c>
-      <c r="D117" s="3" t="str">
+      <c r="D117" s="9" t="str">
         <v>瓜子盾</v>
       </c>
       <c r="E117" s="1"/>
@@ -4490,7 +4490,7 @@
       <c r="C118" s="1" t="str">
         <v>Shield (Hulk Exclusive)</v>
       </c>
-      <c r="D118" s="3" t="str">
+      <c r="D118" s="9" t="str">
         <v>盾(浩克专用)</v>
       </c>
       <c r="E118" s="1"/>
@@ -4520,7 +4520,7 @@
       <c r="C119" s="1" t="str">
         <v>Ultimate Ice Ring Sword</v>
       </c>
-      <c r="D119" s="4" t="str">
+      <c r="D119" s="6" t="str">
         <v>终极冰环剑</v>
       </c>
       <c r="E119" s="1"/>
@@ -4550,7 +4550,7 @@
       <c r="C120" s="1" t="str">
         <v>Bullet Spray Gun (For Hinata)</v>
       </c>
-      <c r="D120" s="4" t="str">
+      <c r="D120" s="6" t="str">
         <v>散弹喷枪
 雏田专用</v>
       </c>
@@ -4581,7 +4581,7 @@
       <c r="C121" s="1" t="str">
         <v>Firearms (Luffy Specific)</v>
       </c>
-      <c r="D121" s="4" t="str">
+      <c r="D121" s="6" t="str">
         <v>火枪(路飞专用)</v>
       </c>
       <c r="E121" s="1"/>
@@ -4612,7 +4612,7 @@
         <v>Purple Light Sword
 Special For Sasuke</v>
       </c>
-      <c r="D122" s="4" t="str">
+      <c r="D122" s="6" t="str">
         <v>紫光剑
 佐助专用</v>
       </c>
@@ -4643,7 +4643,7 @@
       <c r="C123" s="1" t="str">
         <v>Laser Gun (Tenjin Specific)</v>
       </c>
-      <c r="D123" s="4" t="str">
+      <c r="D123" s="6" t="str">
         <v>激光枪(天神专用)</v>
       </c>
       <c r="E123" s="1"/>
@@ -4674,7 +4674,7 @@
         <v>Sword
 Exclusively For Wolverine</v>
       </c>
-      <c r="D124" s="3" t="str">
+      <c r="D124" s="9" t="str">
         <v>剑(金刚狼专用)</v>
       </c>
       <c r="E124" s="1"/>
@@ -4704,7 +4704,7 @@
       <c r="C125" s="1" t="str">
         <v>Laser Gun (Iron Man Specific)</v>
       </c>
-      <c r="D125" s="3" t="str">
+      <c r="D125" s="9" t="str">
         <v>激光枪(钢铁侠专用)</v>
       </c>
       <c r="E125" s="1"/>
@@ -4734,7 +4734,7 @@
       <c r="C126" s="1" t="str">
         <v>Couple Mech Set (Female)</v>
       </c>
-      <c r="D126" s="3" t="str">
+      <c r="D126" s="9" t="str">
         <v>情侣机甲套装(女)</v>
       </c>
       <c r="E126" s="1"/>
@@ -4764,7 +4764,7 @@
       <c r="C127" s="1" t="str">
         <v>Couple Mech Set (Male)</v>
       </c>
-      <c r="D127" s="3" t="str">
+      <c r="D127" s="9" t="str">
         <v>情侣机甲套装(男)</v>
       </c>
       <c r="E127" s="1"/>
@@ -6717,7 +6717,7 @@
       <c r="C192" s="1" t="str">
         <v>Rainbow Friends</v>
       </c>
-      <c r="D192" s="7" t="str">
+      <c r="D192" s="4" t="str">
         <v>Rainbow friends</v>
       </c>
       <c r="E192" s="1"/>
@@ -6747,7 +6747,7 @@
       <c r="C193" s="1" t="str">
         <v>Sea God</v>
       </c>
-      <c r="D193" s="7" t="str">
+      <c r="D193" s="4" t="str">
         <v>海神</v>
       </c>
       <c r="E193" s="1"/>
@@ -10992,31 +10992,31 @@
       <c r="A334" s="1">
         <v>330</v>
       </c>
-      <c r="B334" s="5" t="str">
+      <c r="B334" s="3" t="str">
         <v>Text_Guid_28</v>
       </c>
-      <c r="C334" s="5" t="str">
+      <c r="C334" s="3" t="str">
         <v>Forge Soul Bones</v>
       </c>
-      <c r="D334" s="13" t="str">
+      <c r="D334" s="8" t="str">
         <v>锻造魂骨</v>
       </c>
-      <c r="E334" s="5"/>
-      <c r="F334" s="5"/>
-      <c r="G334" s="5"/>
-      <c r="H334" s="5"/>
-      <c r="I334" s="5"/>
-      <c r="J334" s="5"/>
-      <c r="K334" s="5"/>
-      <c r="L334" s="5"/>
-      <c r="M334" s="5"/>
-      <c r="N334" s="5"/>
-      <c r="O334" s="5"/>
-      <c r="P334" s="5"/>
-      <c r="Q334" s="5"/>
-      <c r="R334" s="5"/>
-      <c r="S334" s="5"/>
-      <c r="T334" s="5"/>
+      <c r="E334" s="3"/>
+      <c r="F334" s="3"/>
+      <c r="G334" s="3"/>
+      <c r="H334" s="3"/>
+      <c r="I334" s="3"/>
+      <c r="J334" s="3"/>
+      <c r="K334" s="3"/>
+      <c r="L334" s="3"/>
+      <c r="M334" s="3"/>
+      <c r="N334" s="3"/>
+      <c r="O334" s="3"/>
+      <c r="P334" s="3"/>
+      <c r="Q334" s="3"/>
+      <c r="R334" s="3"/>
+      <c r="S334" s="3"/>
+      <c r="T334" s="3"/>
     </row>
     <row customHeight="true" ht="21" r="335">
       <c r="A335" s="1">
@@ -15176,7 +15176,7 @@
       <c r="C473" s="1" t="str">
         <v>Daily Login To Games（{0}/{1}）</v>
       </c>
-      <c r="D473" s="2" t="str">
+      <c r="D473" s="5" t="str">
         <v>每日登陆游戏（{0}/{1}）</v>
       </c>
       <c r="E473" s="1"/>
@@ -15206,7 +15206,7 @@
       <c r="C474" s="1" t="str">
         <v>Daily Online {2} Minutes（{0}/{1}）</v>
       </c>
-      <c r="D474" s="2" t="str">
+      <c r="D474" s="5" t="str">
         <v>每日在线时长{2}分钟（{0}/{1}）</v>
       </c>
       <c r="E474" s="1"/>
@@ -15236,7 +15236,7 @@
       <c r="C475" s="1" t="str">
         <v>Defeat {2} Medusa Every Day（{0}/{1}）</v>
       </c>
-      <c r="D475" s="2" t="str">
+      <c r="D475" s="5" t="str">
         <v>每日击败{2}只美杜莎（{0}/{1}）</v>
       </c>
       <c r="E475" s="1"/>
@@ -15266,7 +15266,7 @@
       <c r="C476" s="1" t="str">
         <v>Defeat {2} Spider Spirits Daily（{0}/{1}）</v>
       </c>
-      <c r="D476" s="2" t="str">
+      <c r="D476" s="5" t="str">
         <v>每日击败{2}只蜘蛛精（{0}/{1}）</v>
       </c>
       <c r="E476" s="1"/>
@@ -15296,7 +15296,7 @@
       <c r="C477" s="1" t="str">
         <v>Defeat {2} Dazzling Spiders Daily（{0}/{1}）</v>
       </c>
-      <c r="D477" s="2" t="str">
+      <c r="D477" s="5" t="str">
         <v>每日击败{2}只炫彩蜘蛛（{0}/{1}）</v>
       </c>
       <c r="E477" s="1"/>
@@ -15326,7 +15326,7 @@
       <c r="C478" s="1" t="str">
         <v>Defeat {2} Dragon Beasts Daily（{0}/{1}）</v>
       </c>
-      <c r="D478" s="2" t="str">
+      <c r="D478" s="5" t="str">
         <v>每日击败{2}只龙兽（{0}/{1}）</v>
       </c>
       <c r="E478" s="1"/>
@@ -15356,7 +15356,7 @@
       <c r="C479" s="1" t="str">
         <v>Defeat {2} Zombies Daily（{0}/{1}）</v>
       </c>
-      <c r="D479" s="2" t="str">
+      <c r="D479" s="5" t="str">
         <v>每日击败{2}只丧尸（{0}/{1}）</v>
       </c>
       <c r="E479" s="1"/>
@@ -15386,7 +15386,7 @@
       <c r="C480" s="1" t="str">
         <v>Defeat {2} Mutated Puppets Daily（{0}/{1}）</v>
       </c>
-      <c r="D480" s="2" t="str">
+      <c r="D480" s="5" t="str">
         <v>每日击败{2}只变异布偶（{0}/{1}）</v>
       </c>
       <c r="E480" s="1"/>
@@ -15416,7 +15416,7 @@
       <c r="C481" s="1" t="str">
         <v>Defeat {2} Players Daily（{0}/{1}）</v>
       </c>
-      <c r="D481" s="2" t="str">
+      <c r="D481" s="5" t="str">
         <v>每日击败{2}名玩家（{0}/{1}）</v>
       </c>
       <c r="E481" s="1"/>
@@ -15446,7 +15446,7 @@
       <c r="C482" s="1" t="str">
         <v>Daily Level Increase By {2} Levels（{0}/{1}）</v>
       </c>
-      <c r="D482" s="2" t="str">
+      <c r="D482" s="5" t="str">
         <v>每日等级提升{2}级（{0}/{1}）</v>
       </c>
       <c r="E482" s="1"/>
@@ -15476,7 +15476,7 @@
       <c r="C483" s="1" t="str">
         <v>Pick Up {2} Treasures Every Day（{0}/{1}）</v>
       </c>
-      <c r="D483" s="2" t="str">
+      <c r="D483" s="5" t="str">
         <v>每日捡到{2}个秘宝（{0}/{1}）</v>
       </c>
       <c r="E483" s="1"/>
@@ -15506,7 +15506,7 @@
       <c r="C484" s="1" t="str">
         <v>Watch {2} Ads Per Day（{0}/{1}）</v>
       </c>
-      <c r="D484" s="2" t="str">
+      <c r="D484" s="5" t="str">
         <v>每日观看{2}次广告（{0}/{1}）</v>
       </c>
       <c r="E484" s="1"/>
@@ -15536,7 +15536,7 @@
       <c r="C485" s="1" t="str">
         <v>Login {2} Days A Week（{0}/{1}）</v>
       </c>
-      <c r="D485" s="2" t="str">
+      <c r="D485" s="5" t="str">
         <v>每周登录{2}天（{0}/{1}）</v>
       </c>
       <c r="E485" s="1"/>
@@ -15566,7 +15566,7 @@
       <c r="C486" s="1" t="str">
         <v>Up To 30 Minutes And {2} Days Per Week（{0}/{1}）</v>
       </c>
-      <c r="D486" s="2" t="str">
+      <c r="D486" s="5" t="str">
         <v>每周时长达到30分钟{2}天（{0}/{1}）</v>
       </c>
       <c r="E486" s="1"/>
@@ -15596,7 +15596,7 @@
       <c r="C487" s="1" t="str">
         <v>Defeat {2} Medusa Every Week（{0}/{1}）</v>
       </c>
-      <c r="D487" s="2" t="str">
+      <c r="D487" s="5" t="str">
         <v>每周击败{2}只美杜莎（{0}/{1}）</v>
       </c>
       <c r="E487" s="1"/>
@@ -15626,7 +15626,7 @@
       <c r="C488" s="1" t="str">
         <v>Defeat {2} Spider Spirits Every Week（{0}/{1}）</v>
       </c>
-      <c r="D488" s="2" t="str">
+      <c r="D488" s="5" t="str">
         <v>每周击败{2}只蜘蛛精（{0}/{1}）</v>
       </c>
       <c r="E488" s="1"/>
@@ -15656,7 +15656,7 @@
       <c r="C489" s="1" t="str">
         <v>Defeat {2} Dazzling Spiders Every Week（{0}/{1}）</v>
       </c>
-      <c r="D489" s="2" t="str">
+      <c r="D489" s="5" t="str">
         <v>每周击败{2}只炫彩蜘蛛（{0}/{1}）</v>
       </c>
       <c r="E489" s="1"/>
@@ -15686,7 +15686,7 @@
       <c r="C490" s="1" t="str">
         <v>Defeat {2} Dragon Beasts Every Week（{0}/{1}）</v>
       </c>
-      <c r="D490" s="2" t="str">
+      <c r="D490" s="5" t="str">
         <v>每周击败{2}只龙兽（{0}/{1}）</v>
       </c>
       <c r="E490" s="1"/>
@@ -15716,7 +15716,7 @@
       <c r="C491" s="1" t="str">
         <v>Defeat {2} Zombies Every Week（{0}/{1}）</v>
       </c>
-      <c r="D491" s="2" t="str">
+      <c r="D491" s="5" t="str">
         <v>每周击败{2}只丧尸（{0}/{1}）</v>
       </c>
       <c r="E491" s="1"/>
@@ -15746,7 +15746,7 @@
       <c r="C492" s="1" t="str">
         <v>Defeat {2} Mutated Puppets Every Week（{0}/{1}）</v>
       </c>
-      <c r="D492" s="2" t="str">
+      <c r="D492" s="5" t="str">
         <v>每周击败{2}只变异布偶（{0}/{1}）</v>
       </c>
       <c r="E492" s="1"/>
@@ -15776,7 +15776,7 @@
       <c r="C493" s="1" t="str">
         <v>Defeat {2} Players Per Week（{0}/{1}）</v>
       </c>
-      <c r="D493" s="2" t="str">
+      <c r="D493" s="5" t="str">
         <v>每周击败{2}名玩家（{0}/{1}）</v>
       </c>
       <c r="E493" s="1"/>
@@ -15806,7 +15806,7 @@
       <c r="C494" s="1" t="str">
         <v>Upgrade By {2} Levels Per Week（{0}/{1}）</v>
       </c>
-      <c r="D494" s="2" t="str">
+      <c r="D494" s="5" t="str">
         <v>每周等级提升{2}级（{0}/{1}）</v>
       </c>
       <c r="E494" s="1"/>
@@ -15836,7 +15836,7 @@
       <c r="C495" s="1" t="str">
         <v>Pick Up {2} Treasures Every Week（{0}/{1}）</v>
       </c>
-      <c r="D495" s="2" t="str">
+      <c r="D495" s="5" t="str">
         <v>每周捡到{2}个秘宝（{0}/{1}）</v>
       </c>
       <c r="E495" s="1"/>
@@ -15866,7 +15866,7 @@
       <c r="C496" s="1" t="str">
         <v>Watch {2} Ads Per Week（{0}/{1}）</v>
       </c>
-      <c r="D496" s="2" t="str">
+      <c r="D496" s="5" t="str">
         <v>每周观看{2}次广告（{0}/{1}）</v>
       </c>
       <c r="E496" s="1"/>
@@ -16883,10 +16883,10 @@
       <c r="B530" s="1" t="str">
         <v>Text_EternalImmortalEmperor</v>
       </c>
-      <c r="C530" s="12" t="str">
+      <c r="C530" s="11" t="str">
         <v>Eternal Immortal Emperor</v>
       </c>
-      <c r="D530" s="12" t="str">
+      <c r="D530" s="11" t="str">
         <v>万古仙帝</v>
       </c>
       <c r="E530" s="1"/>
@@ -16940,7 +16940,7 @@
       <c r="A532" s="1">
         <v>528</v>
       </c>
-      <c r="B532" s="12" t="str">
+      <c r="B532" s="11" t="str">
         <v>Text_MartialSoulMechSlashWindSlash_Female</v>
       </c>
       <c r="C532" s="1" t="str">
@@ -17280,7 +17280,7 @@
       <c r="C543" s="1" t="str">
         <v>Open World</v>
       </c>
-      <c r="D543" s="6" t="str">
+      <c r="D543" s="2" t="str">
         <v>开放世界</v>
       </c>
       <c r="E543" s="1"/>
@@ -17310,7 +17310,7 @@
       <c r="C544" s="1" t="str">
         <v>Stay</v>
       </c>
-      <c r="D544" s="6" t="str">
+      <c r="D544" s="2" t="str">
         <v>留下来</v>
       </c>
       <c r="E544" s="1"/>
@@ -17340,7 +17340,7 @@
       <c r="C545" s="1" t="str">
         <v>Bad Guy</v>
       </c>
-      <c r="D545" s="6" t="str">
+      <c r="D545" s="2" t="str">
         <v>坏人</v>
       </c>
       <c r="E545" s="1"/>
@@ -17370,7 +17370,7 @@
       <c r="C546" s="1" t="str">
         <v>I Will Survive</v>
       </c>
-      <c r="D546" s="10" t="str">
+      <c r="D546" s="7" t="str">
         <v>我会活下去</v>
       </c>
       <c r="E546" s="1"/>
@@ -17400,7 +17400,7 @@
       <c r="C547" s="1" t="str">
         <v>Let Me Love You</v>
       </c>
-      <c r="D547" s="6" t="str">
+      <c r="D547" s="2" t="str">
         <v>让我爱你</v>
       </c>
       <c r="E547" s="1"/>
@@ -17430,7 +17430,7 @@
       <c r="C548" s="1" t="str">
         <v>Running Up That Hill</v>
       </c>
-      <c r="D548" s="6" t="str">
+      <c r="D548" s="2" t="str">
         <v>跑上那座山</v>
       </c>
       <c r="E548" s="1"/>
@@ -17460,7 +17460,7 @@
       <c r="C549" s="1" t="str">
         <v>Love To Hate Me</v>
       </c>
-      <c r="D549" s="6" t="str">
+      <c r="D549" s="2" t="str">
         <v>爱恨我</v>
       </c>
       <c r="E549" s="1"/>
@@ -17490,7 +17490,7 @@
       <c r="C550" s="1" t="str">
         <v>Tomboy</v>
       </c>
-      <c r="D550" s="6" t="str">
+      <c r="D550" s="2" t="str">
         <v>假小子</v>
       </c>
       <c r="E550" s="1"/>
@@ -17520,7 +17520,7 @@
       <c r="C551" s="1" t="str">
         <v>Shut Down</v>
       </c>
-      <c r="D551" s="6" t="str">
+      <c r="D551" s="2" t="str">
         <v>关闭</v>
       </c>
       <c r="E551" s="1"/>
@@ -17550,7 +17550,7 @@
       <c r="C552" s="1" t="str">
         <v>Celestial</v>
       </c>
-      <c r="D552" s="6" t="str">
+      <c r="D552" s="2" t="str">
         <v>天空的</v>
       </c>
       <c r="E552" s="1"/>
@@ -17580,7 +17580,7 @@
       <c r="C553" s="1" t="str">
         <v>As It Was</v>
       </c>
-      <c r="D553" s="10" t="str">
+      <c r="D553" s="7" t="str">
         <v>事实上</v>
       </c>
       <c r="E553" s="1"/>
@@ -17610,7 +17610,7 @@
       <c r="C554" s="1" t="str">
         <v>Good Morning</v>
       </c>
-      <c r="D554" s="6" t="str">
+      <c r="D554" s="2" t="str">
         <v>早上好</v>
       </c>
       <c r="E554" s="1"/>
@@ -17640,7 +17640,7 @@
       <c r="C555" s="1" t="str">
         <v>Alone</v>
       </c>
-      <c r="D555" s="6" t="str">
+      <c r="D555" s="2" t="str">
         <v>独自一人</v>
       </c>
       <c r="E555" s="1"/>
@@ -17670,7 +17670,7 @@
       <c r="C556" s="1" t="str">
         <v>Chanderiler</v>
       </c>
-      <c r="D556" s="6" t="str">
+      <c r="D556" s="2" t="str">
         <v>钱德里勒</v>
       </c>
       <c r="E556" s="1"/>
@@ -17700,7 +17700,7 @@
       <c r="C557" s="1" t="str">
         <v>Don'T Wanna Know</v>
       </c>
-      <c r="D557" s="6" t="str">
+      <c r="D557" s="2" t="str">
         <v>不想知道</v>
       </c>
       <c r="E557" s="1"/>
@@ -17730,7 +17730,7 @@
       <c r="C558" s="1" t="str">
         <v>Mood</v>
       </c>
-      <c r="D558" s="6" t="str">
+      <c r="D558" s="2" t="str">
         <v>心情</v>
       </c>
       <c r="E558" s="1"/>
@@ -17760,7 +17760,7 @@
       <c r="C559" s="1" t="str">
         <v>Moon</v>
       </c>
-      <c r="D559" s="10" t="str">
+      <c r="D559" s="7" t="str">
         <v>金轮</v>
       </c>
       <c r="E559" s="1"/>
@@ -17790,7 +17790,7 @@
       <c r="C560" s="1" t="str">
         <v>I Don'T Know What It'S Called</v>
       </c>
-      <c r="D560" s="6" t="str">
+      <c r="D560" s="2" t="str">
         <v>不知道叫啥</v>
       </c>
       <c r="E560" s="1"/>
@@ -17820,7 +17820,7 @@
       <c r="C561" s="1" t="str">
         <v>I Don'T Know What It'S Called</v>
       </c>
-      <c r="D561" s="6" t="str">
+      <c r="D561" s="2" t="str">
         <v>也不知道叫啥</v>
       </c>
       <c r="E561" s="1"/>
@@ -17997,7 +17997,7 @@
       <c r="B567" s="1" t="str">
         <v>Text_ForgeSoulRings_Button</v>
       </c>
-      <c r="C567" s="13" t="str">
+      <c r="C567" s="8" t="str">
         <v>Forge Soul Rings</v>
       </c>
       <c r="D567" s="1" t="str">
@@ -18024,7 +18024,7 @@
       <c r="A568" s="1">
         <v>564</v>
       </c>
-      <c r="B568" s="13" t="str">
+      <c r="B568" s="8" t="str">
         <v>Text_LotsOfDiamonds</v>
       </c>
       <c r="C568" s="1" t="str">
@@ -18142,16 +18142,16 @@
       <c r="T571" s="1"/>
     </row>
     <row r="572">
-      <c r="A572" s="5">
+      <c r="A572" s="3">
         <v>568</v>
       </c>
-      <c r="B572" s="5" t="str">
+      <c r="B572" s="3" t="str">
         <v>Text_ModifyTheTitle</v>
       </c>
-      <c r="C572" s="5" t="str">
+      <c r="C572" s="3" t="str">
         <v>Modify The Title</v>
       </c>
-      <c r="D572" s="5" t="str">
+      <c r="D572" s="3" t="str">
         <v>修改称号</v>
       </c>
       <c r="E572" s="1"/>
@@ -18172,10 +18172,10 @@
       <c r="T572" s="1"/>
     </row>
     <row r="573">
-      <c r="A573" s="5">
+      <c r="A573" s="3">
         <v>569</v>
       </c>
-      <c r="B573" s="5" t="str">
+      <c r="B573" s="3" t="str">
         <v>Text_TitleNameTips</v>
       </c>
       <c r="C573" s="16" t="str">
@@ -18204,16 +18204,16 @@
       <c r="T573" s="1"/>
     </row>
     <row r="574">
-      <c r="A574" s="5">
+      <c r="A574" s="3">
         <v>570</v>
       </c>
-      <c r="B574" s="5" t="str">
+      <c r="B574" s="3" t="str">
         <v>Text_PleaseEnterTheTitle</v>
       </c>
-      <c r="C574" s="5" t="str">
+      <c r="C574" s="3" t="str">
         <v>Please Enter The Title</v>
       </c>
-      <c r="D574" s="5" t="str">
+      <c r="D574" s="3" t="str">
         <v>请输入称号</v>
       </c>
       <c r="E574" s="1"/>
@@ -18234,16 +18234,16 @@
       <c r="T574" s="1"/>
     </row>
     <row r="575">
-      <c r="A575" s="5">
+      <c r="A575" s="3">
         <v>571</v>
       </c>
-      <c r="B575" s="5" t="str">
+      <c r="B575" s="3" t="str">
         <v>Text_ModifiedSuccessfully</v>
       </c>
-      <c r="C575" s="5" t="str">
+      <c r="C575" s="3" t="str">
         <v>Modified Successfully</v>
       </c>
-      <c r="D575" s="5" t="str">
+      <c r="D575" s="3" t="str">
         <v>修改成功</v>
       </c>
       <c r="E575" s="1"/>
@@ -18264,16 +18264,16 @@
       <c r="T575" s="1"/>
     </row>
     <row r="576">
-      <c r="A576" s="5">
+      <c r="A576" s="3">
         <v>572</v>
       </c>
-      <c r="B576" s="5" t="str">
+      <c r="B576" s="3" t="str">
         <v>Text_RestartTheGameToTakeEffect</v>
       </c>
-      <c r="C576" s="5" t="str">
+      <c r="C576" s="3" t="str">
         <v>Restart The Game To Take Effect</v>
       </c>
-      <c r="D576" s="5" t="str">
+      <c r="D576" s="3" t="str">
         <v>重启游戏即可生效</v>
       </c>
       <c r="E576" s="1"/>
@@ -18294,7 +18294,7 @@
       <c r="T576" s="1"/>
     </row>
     <row r="577">
-      <c r="A577" s="5">
+      <c r="A577" s="3">
         <v>573</v>
       </c>
       <c r="B577" s="1" t="str">
@@ -18324,7 +18324,7 @@
       <c r="T577" s="1"/>
     </row>
     <row r="578">
-      <c r="A578" s="5">
+      <c r="A578" s="3">
         <v>574</v>
       </c>
       <c r="B578" s="1" t="str">
@@ -18354,7 +18354,7 @@
       <c r="T578" s="1"/>
     </row>
     <row r="579">
-      <c r="A579" s="5">
+      <c r="A579" s="3">
         <v>575</v>
       </c>
       <c r="B579" s="1" t="str">
@@ -18390,10 +18390,18 @@
       <c r="T579" s="1"/>
     </row>
     <row r="580">
-      <c r="A580" s="1"/>
-      <c r="B580" s="1"/>
-      <c r="C580" s="1"/>
-      <c r="D580" s="1"/>
+      <c r="A580" s="3">
+        <v>576</v>
+      </c>
+      <c r="B580" s="1" t="str">
+        <v>Text_AlterTitle</v>
+      </c>
+      <c r="C580" s="1" t="str">
+        <v>Alter Title</v>
+      </c>
+      <c r="D580" s="1" t="str">
+        <v>点击头像修改称号</v>
+      </c>
       <c r="E580" s="1"/>
       <c r="F580" s="1"/>
       <c r="G580" s="1"/>

--- a/infinite/Excel/Language_Multiple.xlsx
+++ b/infinite/Excel/Language_Multiple.xlsx
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="17">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -51,35 +51,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF667901"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF667901"/>
+      <color rgb="FF34C724"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,7 +79,28 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF34C724"/>
+      <color rgb="FF270561"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF54A45"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF01D94"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF14BA9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,42 +115,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF7F3BF5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF14BA9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF01D94"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF270561"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -302,49 +267,49 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="0" fontId="15" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="0" fontId="16" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,25 +659,25 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="21" r="1">
-      <c r="A1" s="10" t="str">
+      <c r="A1" s="14" t="str">
         <v>int</v>
       </c>
-      <c r="B1" s="10" t="str">
+      <c r="B1" s="14" t="str">
         <v>string</v>
       </c>
-      <c r="C1" s="10" t="str">
+      <c r="C1" s="14" t="str">
         <v>string</v>
       </c>
-      <c r="D1" s="10" t="str">
+      <c r="D1" s="14" t="str">
         <v>string</v>
       </c>
-      <c r="E1" s="10" t="str">
+      <c r="E1" s="14" t="str">
         <v>string</v>
       </c>
-      <c r="F1" s="10" t="str">
+      <c r="F1" s="14" t="str">
         <v>string</v>
       </c>
-      <c r="G1" s="10" t="str">
+      <c r="G1" s="14" t="str">
         <v>string</v>
       </c>
       <c r="H1" s="1"/>
@@ -730,25 +695,25 @@
       <c r="T1" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="2">
-      <c r="A2" s="10" t="str">
+      <c r="A2" s="14" t="str">
         <v>Id</v>
       </c>
-      <c r="B2" s="10" t="str">
+      <c r="B2" s="14" t="str">
         <v>Name</v>
       </c>
-      <c r="C2" s="10" t="str">
+      <c r="C2" s="14" t="str">
         <v>Value</v>
       </c>
-      <c r="D2" s="10" t="str">
+      <c r="D2" s="14" t="str">
         <v>Value_Ch</v>
       </c>
-      <c r="E2" s="10" t="str">
+      <c r="E2" s="14" t="str">
         <v>Value_Cht</v>
       </c>
-      <c r="F2" s="10" t="str">
+      <c r="F2" s="14" t="str">
         <v>Value_J</v>
       </c>
-      <c r="G2" s="10" t="str">
+      <c r="G2" s="14" t="str">
         <v>Value_K</v>
       </c>
       <c r="H2" s="1"/>
@@ -766,25 +731,25 @@
       <c r="T2" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="3">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="14" t="str">
         <v>唯一标识</v>
       </c>
-      <c r="B3" s="10" t="str">
+      <c r="B3" s="14" t="str">
         <v>名字</v>
       </c>
-      <c r="C3" s="10" t="str">
+      <c r="C3" s="14" t="str">
         <v>英文</v>
       </c>
-      <c r="D3" s="10" t="str">
+      <c r="D3" s="14" t="str">
         <v>中文</v>
       </c>
-      <c r="E3" s="10" t="str">
+      <c r="E3" s="14" t="str">
         <v>繁中</v>
       </c>
-      <c r="F3" s="10" t="str">
+      <c r="F3" s="14" t="str">
         <v>日语</v>
       </c>
-      <c r="G3" s="10" t="str">
+      <c r="G3" s="14" t="str">
         <v>韩语</v>
       </c>
       <c r="H3" s="1"/>
@@ -802,23 +767,23 @@
       <c r="T3" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10" t="str">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14" t="str">
         <v>Key|ReadByName</v>
       </c>
-      <c r="C4" s="10" t="str">
+      <c r="C4" s="14" t="str">
         <v>MainLanguage</v>
       </c>
-      <c r="D4" s="10" t="str">
+      <c r="D4" s="14" t="str">
         <v>ChildLanguage</v>
       </c>
-      <c r="E4" s="10" t="str">
+      <c r="E4" s="14" t="str">
         <v>ChildLanguage</v>
       </c>
-      <c r="F4" s="10" t="str">
+      <c r="F4" s="14" t="str">
         <v>ChildLanguage</v>
       </c>
-      <c r="G4" s="10" t="str">
+      <c r="G4" s="14" t="str">
         <v>ChildLanguage</v>
       </c>
       <c r="H4" s="1"/>
@@ -3297,7 +3262,7 @@
       <c r="C79" s="1" t="str">
         <v>Automatic Attack Fist (Male)</v>
       </c>
-      <c r="D79" s="15" t="str">
+      <c r="D79" s="6" t="str">
         <v>自动攻击拳(男)</v>
       </c>
       <c r="E79" s="1"/>
@@ -3327,7 +3292,7 @@
       <c r="C80" s="1" t="str">
         <v>Automatic Attack Fist (Female)</v>
       </c>
-      <c r="D80" s="15" t="str">
+      <c r="D80" s="6" t="str">
         <v>自动攻击拳(女)</v>
       </c>
       <c r="E80" s="1"/>
@@ -3507,7 +3472,7 @@
       <c r="C86" s="1" t="str">
         <v>Trident Of The Sea God</v>
       </c>
-      <c r="D86" s="12" t="str">
+      <c r="D86" s="16" t="str">
         <v>海神三叉戟</v>
       </c>
       <c r="E86" s="1"/>
@@ -3537,7 +3502,7 @@
       <c r="C87" s="1" t="str">
         <v>Cyber Comes With A Long Spear</v>
       </c>
-      <c r="D87" s="12" t="str">
+      <c r="D87" s="16" t="str">
         <v>赛博自来也长枪</v>
       </c>
       <c r="E87" s="1"/>
@@ -3567,7 +3532,7 @@
       <c r="C88" s="1" t="str">
         <v>Sea King Double Headed Knife</v>
       </c>
-      <c r="D88" s="12" t="str">
+      <c r="D88" s="16" t="str">
         <v>海王双头刀</v>
       </c>
       <c r="E88" s="1"/>
@@ -3597,7 +3562,7 @@
       <c r="C89" s="1" t="str">
         <v>Captain America'S Hammer</v>
       </c>
-      <c r="D89" s="4" t="str">
+      <c r="D89" s="7" t="str">
         <v>美国队长神锤</v>
       </c>
       <c r="E89" s="1"/>
@@ -3627,7 +3592,7 @@
       <c r="C90" s="1" t="str">
         <v>Venom Axe</v>
       </c>
-      <c r="D90" s="4" t="str">
+      <c r="D90" s="7" t="str">
         <v>毒液斧头</v>
       </c>
       <c r="E90" s="1"/>
@@ -3657,7 +3622,7 @@
       <c r="C91" s="1" t="str">
         <v>Mieba Axe</v>
       </c>
-      <c r="D91" s="4" t="str">
+      <c r="D91" s="7" t="str">
         <v>灭霸斧</v>
       </c>
       <c r="E91" s="1"/>
@@ -3687,7 +3652,7 @@
       <c r="C92" s="1" t="str">
         <v>Naruto Wielding A Sword</v>
       </c>
-      <c r="D92" s="4" t="str">
+      <c r="D92" s="7" t="str">
         <v>鸣人手里剑</v>
       </c>
       <c r="E92" s="1"/>
@@ -3717,7 +3682,7 @@
       <c r="C93" s="1" t="str">
         <v>Future Warrior Golden Sword</v>
       </c>
-      <c r="D93" s="4" t="str">
+      <c r="D93" s="7" t="str">
         <v>未来战士黄金剑</v>
       </c>
       <c r="E93" s="1"/>
@@ -3747,7 +3712,7 @@
       <c r="C94" s="1" t="str">
         <v>Forest Sentinel Magic Battle</v>
       </c>
-      <c r="D94" s="6" t="str">
+      <c r="D94" s="2" t="str">
         <v>森林哨兵魔法仗</v>
       </c>
       <c r="E94" s="1"/>
@@ -3777,7 +3742,7 @@
       <c r="C95" s="1" t="str">
         <v>Pistol (Sonic Specific)</v>
       </c>
-      <c r="D95" s="6" t="str">
+      <c r="D95" s="2" t="str">
         <v>手枪
 索尼克专用</v>
       </c>
@@ -3809,7 +3774,7 @@
         <v>Signal Gun
 Specifically For Pink Hair Monster</v>
       </c>
-      <c r="D96" s="6" t="str">
+      <c r="D96" s="2" t="str">
         <v>信号枪
 粉毛怪专用</v>
       </c>
@@ -3840,7 +3805,7 @@
       <c r="C97" s="1" t="str">
         <v>Knife (For Tsunade)</v>
       </c>
-      <c r="D97" s="6" t="str">
+      <c r="D97" s="2" t="str">
         <v>刀(纲手专用)</v>
       </c>
       <c r="E97" s="1"/>
@@ -3870,7 +3835,7 @@
       <c r="C98" s="1" t="str">
         <v>Knife (Exclusive To Lilock)</v>
       </c>
-      <c r="D98" s="14" t="str">
+      <c r="D98" s="9" t="str">
         <v>刀(李洛克专用)</v>
       </c>
       <c r="E98" s="1"/>
@@ -3901,7 +3866,7 @@
         <v>Sickle
 For Dried Persimmon Ghost Shark</v>
       </c>
-      <c r="D99" s="6" t="str">
+      <c r="D99" s="2" t="str">
         <v>镰刀
 干柿鬼鲛专用</v>
       </c>
@@ -3933,7 +3898,7 @@
         <v>Sickle
 Exclusively For Cyber Girls</v>
       </c>
-      <c r="D100" s="6" t="str">
+      <c r="D100" s="2" t="str">
         <v>镰刀
 赛博女孩专用</v>
       </c>
@@ -3965,7 +3930,7 @@
         <v>Ice Sword
 Exclusively For Black Widow</v>
       </c>
-      <c r="D101" s="6" t="str">
+      <c r="D101" s="2" t="str">
         <v>冰封剑
 黑寡妇专用</v>
       </c>
@@ -3996,7 +3961,7 @@
       <c r="C102" s="1" t="str">
         <v>Monster Claw Knife</v>
       </c>
-      <c r="D102" s="14" t="str">
+      <c r="D102" s="9" t="str">
         <v>怪物爪刀</v>
       </c>
       <c r="E102" s="1"/>
@@ -4026,7 +3991,7 @@
       <c r="C103" s="1" t="str">
         <v>Machete (Kakashi Specific)</v>
       </c>
-      <c r="D103" s="6" t="str">
+      <c r="D103" s="2" t="str">
         <v>大砍刀
 卡卡西专用</v>
       </c>
@@ -4179,7 +4144,7 @@
       <c r="C108" s="1" t="str">
         <v>Blue Staff (Loki Specific)</v>
       </c>
-      <c r="D108" s="4" t="str">
+      <c r="D108" s="7" t="str">
         <v>蓝色法杖
 洛基专用</v>
       </c>
@@ -4210,7 +4175,7 @@
       <c r="C109" s="1" t="str">
         <v>Sickle (Sun God Exclusive)</v>
       </c>
-      <c r="D109" s="4" t="str">
+      <c r="D109" s="7" t="str">
         <v>镰刀
 太阳神专用</v>
       </c>
@@ -4242,7 +4207,7 @@
         <v>Demon Sword
 Exclusively For Uchiha Madara</v>
       </c>
-      <c r="D110" s="4" t="str">
+      <c r="D110" s="7" t="str">
         <v>恶魔剑
 宇智波斑爷专用</v>
       </c>
@@ -4274,7 +4239,7 @@
         <v>Sword
 Specifically Designed For Nanorobots</v>
       </c>
-      <c r="D111" s="4" t="str">
+      <c r="D111" s="7" t="str">
         <v>剑(纳米机器人专用)</v>
       </c>
       <c r="E111" s="1"/>
@@ -4304,7 +4269,7 @@
       <c r="C112" s="1" t="str">
         <v>Sickle (Deadpool Specific)</v>
       </c>
-      <c r="D112" s="4" t="str">
+      <c r="D112" s="7" t="str">
         <v>镰刀(死侍专用)</v>
       </c>
       <c r="E112" s="1"/>
@@ -4398,7 +4363,7 @@
       <c r="C115" s="1" t="str">
         <v>Inflatable Hammer</v>
       </c>
-      <c r="D115" s="9" t="str">
+      <c r="D115" s="3" t="str">
         <v>充气锤子</v>
       </c>
       <c r="E115" s="1"/>
@@ -4429,7 +4394,7 @@
         <v>Wooden Staff
 Venom Spider Man Specific</v>
       </c>
-      <c r="D116" s="9" t="str">
+      <c r="D116" s="3" t="str">
         <v>木法杖
 毒液蜘蛛侠专用</v>
       </c>
@@ -4460,7 +4425,7 @@
       <c r="C117" s="1" t="str">
         <v>Guazi Shield</v>
       </c>
-      <c r="D117" s="9" t="str">
+      <c r="D117" s="3" t="str">
         <v>瓜子盾</v>
       </c>
       <c r="E117" s="1"/>
@@ -4490,7 +4455,7 @@
       <c r="C118" s="1" t="str">
         <v>Shield (Hulk Exclusive)</v>
       </c>
-      <c r="D118" s="9" t="str">
+      <c r="D118" s="3" t="str">
         <v>盾(浩克专用)</v>
       </c>
       <c r="E118" s="1"/>
@@ -4520,7 +4485,7 @@
       <c r="C119" s="1" t="str">
         <v>Ultimate Ice Ring Sword</v>
       </c>
-      <c r="D119" s="6" t="str">
+      <c r="D119" s="2" t="str">
         <v>终极冰环剑</v>
       </c>
       <c r="E119" s="1"/>
@@ -4550,7 +4515,7 @@
       <c r="C120" s="1" t="str">
         <v>Bullet Spray Gun (For Hinata)</v>
       </c>
-      <c r="D120" s="6" t="str">
+      <c r="D120" s="2" t="str">
         <v>散弹喷枪
 雏田专用</v>
       </c>
@@ -4581,7 +4546,7 @@
       <c r="C121" s="1" t="str">
         <v>Firearms (Luffy Specific)</v>
       </c>
-      <c r="D121" s="6" t="str">
+      <c r="D121" s="2" t="str">
         <v>火枪(路飞专用)</v>
       </c>
       <c r="E121" s="1"/>
@@ -4612,7 +4577,7 @@
         <v>Purple Light Sword
 Special For Sasuke</v>
       </c>
-      <c r="D122" s="6" t="str">
+      <c r="D122" s="2" t="str">
         <v>紫光剑
 佐助专用</v>
       </c>
@@ -4643,7 +4608,7 @@
       <c r="C123" s="1" t="str">
         <v>Laser Gun (Tenjin Specific)</v>
       </c>
-      <c r="D123" s="6" t="str">
+      <c r="D123" s="2" t="str">
         <v>激光枪(天神专用)</v>
       </c>
       <c r="E123" s="1"/>
@@ -4674,7 +4639,7 @@
         <v>Sword
 Exclusively For Wolverine</v>
       </c>
-      <c r="D124" s="9" t="str">
+      <c r="D124" s="3" t="str">
         <v>剑(金刚狼专用)</v>
       </c>
       <c r="E124" s="1"/>
@@ -4704,7 +4669,7 @@
       <c r="C125" s="1" t="str">
         <v>Laser Gun (Iron Man Specific)</v>
       </c>
-      <c r="D125" s="9" t="str">
+      <c r="D125" s="3" t="str">
         <v>激光枪(钢铁侠专用)</v>
       </c>
       <c r="E125" s="1"/>
@@ -4734,7 +4699,7 @@
       <c r="C126" s="1" t="str">
         <v>Couple Mech Set (Female)</v>
       </c>
-      <c r="D126" s="9" t="str">
+      <c r="D126" s="3" t="str">
         <v>情侣机甲套装(女)</v>
       </c>
       <c r="E126" s="1"/>
@@ -4764,7 +4729,7 @@
       <c r="C127" s="1" t="str">
         <v>Couple Mech Set (Male)</v>
       </c>
-      <c r="D127" s="9" t="str">
+      <c r="D127" s="3" t="str">
         <v>情侣机甲套装(男)</v>
       </c>
       <c r="E127" s="1"/>
@@ -6717,7 +6682,7 @@
       <c r="C192" s="1" t="str">
         <v>Rainbow Friends</v>
       </c>
-      <c r="D192" s="4" t="str">
+      <c r="D192" s="7" t="str">
         <v>Rainbow friends</v>
       </c>
       <c r="E192" s="1"/>
@@ -6747,7 +6712,7 @@
       <c r="C193" s="1" t="str">
         <v>Sea God</v>
       </c>
-      <c r="D193" s="4" t="str">
+      <c r="D193" s="7" t="str">
         <v>海神</v>
       </c>
       <c r="E193" s="1"/>
@@ -10992,31 +10957,31 @@
       <c r="A334" s="1">
         <v>330</v>
       </c>
-      <c r="B334" s="3" t="str">
+      <c r="B334" s="11" t="str">
         <v>Text_Guid_28</v>
       </c>
-      <c r="C334" s="3" t="str">
+      <c r="C334" s="11" t="str">
         <v>Forge Soul Bones</v>
       </c>
-      <c r="D334" s="8" t="str">
+      <c r="D334" s="12" t="str">
         <v>锻造魂骨</v>
       </c>
-      <c r="E334" s="3"/>
-      <c r="F334" s="3"/>
-      <c r="G334" s="3"/>
-      <c r="H334" s="3"/>
-      <c r="I334" s="3"/>
-      <c r="J334" s="3"/>
-      <c r="K334" s="3"/>
-      <c r="L334" s="3"/>
-      <c r="M334" s="3"/>
-      <c r="N334" s="3"/>
-      <c r="O334" s="3"/>
-      <c r="P334" s="3"/>
-      <c r="Q334" s="3"/>
-      <c r="R334" s="3"/>
-      <c r="S334" s="3"/>
-      <c r="T334" s="3"/>
+      <c r="E334" s="11"/>
+      <c r="F334" s="11"/>
+      <c r="G334" s="11"/>
+      <c r="H334" s="11"/>
+      <c r="I334" s="11"/>
+      <c r="J334" s="11"/>
+      <c r="K334" s="11"/>
+      <c r="L334" s="11"/>
+      <c r="M334" s="11"/>
+      <c r="N334" s="11"/>
+      <c r="O334" s="11"/>
+      <c r="P334" s="11"/>
+      <c r="Q334" s="11"/>
+      <c r="R334" s="11"/>
+      <c r="S334" s="11"/>
+      <c r="T334" s="11"/>
     </row>
     <row customHeight="true" ht="21" r="335">
       <c r="A335" s="1">
@@ -15176,7 +15141,7 @@
       <c r="C473" s="1" t="str">
         <v>Daily Login To Games（{0}/{1}）</v>
       </c>
-      <c r="D473" s="5" t="str">
+      <c r="D473" s="8" t="str">
         <v>每日登陆游戏（{0}/{1}）</v>
       </c>
       <c r="E473" s="1"/>
@@ -15206,7 +15171,7 @@
       <c r="C474" s="1" t="str">
         <v>Daily Online {2} Minutes（{0}/{1}）</v>
       </c>
-      <c r="D474" s="5" t="str">
+      <c r="D474" s="8" t="str">
         <v>每日在线时长{2}分钟（{0}/{1}）</v>
       </c>
       <c r="E474" s="1"/>
@@ -15236,7 +15201,7 @@
       <c r="C475" s="1" t="str">
         <v>Defeat {2} Medusa Every Day（{0}/{1}）</v>
       </c>
-      <c r="D475" s="5" t="str">
+      <c r="D475" s="8" t="str">
         <v>每日击败{2}只美杜莎（{0}/{1}）</v>
       </c>
       <c r="E475" s="1"/>
@@ -15266,7 +15231,7 @@
       <c r="C476" s="1" t="str">
         <v>Defeat {2} Spider Spirits Daily（{0}/{1}）</v>
       </c>
-      <c r="D476" s="5" t="str">
+      <c r="D476" s="8" t="str">
         <v>每日击败{2}只蜘蛛精（{0}/{1}）</v>
       </c>
       <c r="E476" s="1"/>
@@ -15296,7 +15261,7 @@
       <c r="C477" s="1" t="str">
         <v>Defeat {2} Dazzling Spiders Daily（{0}/{1}）</v>
       </c>
-      <c r="D477" s="5" t="str">
+      <c r="D477" s="8" t="str">
         <v>每日击败{2}只炫彩蜘蛛（{0}/{1}）</v>
       </c>
       <c r="E477" s="1"/>
@@ -15326,7 +15291,7 @@
       <c r="C478" s="1" t="str">
         <v>Defeat {2} Dragon Beasts Daily（{0}/{1}）</v>
       </c>
-      <c r="D478" s="5" t="str">
+      <c r="D478" s="8" t="str">
         <v>每日击败{2}只龙兽（{0}/{1}）</v>
       </c>
       <c r="E478" s="1"/>
@@ -15356,7 +15321,7 @@
       <c r="C479" s="1" t="str">
         <v>Defeat {2} Zombies Daily（{0}/{1}）</v>
       </c>
-      <c r="D479" s="5" t="str">
+      <c r="D479" s="8" t="str">
         <v>每日击败{2}只丧尸（{0}/{1}）</v>
       </c>
       <c r="E479" s="1"/>
@@ -15386,7 +15351,7 @@
       <c r="C480" s="1" t="str">
         <v>Defeat {2} Mutated Puppets Daily（{0}/{1}）</v>
       </c>
-      <c r="D480" s="5" t="str">
+      <c r="D480" s="8" t="str">
         <v>每日击败{2}只变异布偶（{0}/{1}）</v>
       </c>
       <c r="E480" s="1"/>
@@ -15416,7 +15381,7 @@
       <c r="C481" s="1" t="str">
         <v>Defeat {2} Players Daily（{0}/{1}）</v>
       </c>
-      <c r="D481" s="5" t="str">
+      <c r="D481" s="8" t="str">
         <v>每日击败{2}名玩家（{0}/{1}）</v>
       </c>
       <c r="E481" s="1"/>
@@ -15446,7 +15411,7 @@
       <c r="C482" s="1" t="str">
         <v>Daily Level Increase By {2} Levels（{0}/{1}）</v>
       </c>
-      <c r="D482" s="5" t="str">
+      <c r="D482" s="8" t="str">
         <v>每日等级提升{2}级（{0}/{1}）</v>
       </c>
       <c r="E482" s="1"/>
@@ -15476,7 +15441,7 @@
       <c r="C483" s="1" t="str">
         <v>Pick Up {2} Treasures Every Day（{0}/{1}）</v>
       </c>
-      <c r="D483" s="5" t="str">
+      <c r="D483" s="8" t="str">
         <v>每日捡到{2}个秘宝（{0}/{1}）</v>
       </c>
       <c r="E483" s="1"/>
@@ -15506,7 +15471,7 @@
       <c r="C484" s="1" t="str">
         <v>Watch {2} Ads Per Day（{0}/{1}）</v>
       </c>
-      <c r="D484" s="5" t="str">
+      <c r="D484" s="8" t="str">
         <v>每日观看{2}次广告（{0}/{1}）</v>
       </c>
       <c r="E484" s="1"/>
@@ -15536,7 +15501,7 @@
       <c r="C485" s="1" t="str">
         <v>Login {2} Days A Week（{0}/{1}）</v>
       </c>
-      <c r="D485" s="5" t="str">
+      <c r="D485" s="8" t="str">
         <v>每周登录{2}天（{0}/{1}）</v>
       </c>
       <c r="E485" s="1"/>
@@ -15566,7 +15531,7 @@
       <c r="C486" s="1" t="str">
         <v>Up To 30 Minutes And {2} Days Per Week（{0}/{1}）</v>
       </c>
-      <c r="D486" s="5" t="str">
+      <c r="D486" s="8" t="str">
         <v>每周时长达到30分钟{2}天（{0}/{1}）</v>
       </c>
       <c r="E486" s="1"/>
@@ -15596,7 +15561,7 @@
       <c r="C487" s="1" t="str">
         <v>Defeat {2} Medusa Every Week（{0}/{1}）</v>
       </c>
-      <c r="D487" s="5" t="str">
+      <c r="D487" s="8" t="str">
         <v>每周击败{2}只美杜莎（{0}/{1}）</v>
       </c>
       <c r="E487" s="1"/>
@@ -15626,7 +15591,7 @@
       <c r="C488" s="1" t="str">
         <v>Defeat {2} Spider Spirits Every Week（{0}/{1}）</v>
       </c>
-      <c r="D488" s="5" t="str">
+      <c r="D488" s="8" t="str">
         <v>每周击败{2}只蜘蛛精（{0}/{1}）</v>
       </c>
       <c r="E488" s="1"/>
@@ -15656,7 +15621,7 @@
       <c r="C489" s="1" t="str">
         <v>Defeat {2} Dazzling Spiders Every Week（{0}/{1}）</v>
       </c>
-      <c r="D489" s="5" t="str">
+      <c r="D489" s="8" t="str">
         <v>每周击败{2}只炫彩蜘蛛（{0}/{1}）</v>
       </c>
       <c r="E489" s="1"/>
@@ -15686,7 +15651,7 @@
       <c r="C490" s="1" t="str">
         <v>Defeat {2} Dragon Beasts Every Week（{0}/{1}）</v>
       </c>
-      <c r="D490" s="5" t="str">
+      <c r="D490" s="8" t="str">
         <v>每周击败{2}只龙兽（{0}/{1}）</v>
       </c>
       <c r="E490" s="1"/>
@@ -15716,7 +15681,7 @@
       <c r="C491" s="1" t="str">
         <v>Defeat {2} Zombies Every Week（{0}/{1}）</v>
       </c>
-      <c r="D491" s="5" t="str">
+      <c r="D491" s="8" t="str">
         <v>每周击败{2}只丧尸（{0}/{1}）</v>
       </c>
       <c r="E491" s="1"/>
@@ -15746,7 +15711,7 @@
       <c r="C492" s="1" t="str">
         <v>Defeat {2} Mutated Puppets Every Week（{0}/{1}）</v>
       </c>
-      <c r="D492" s="5" t="str">
+      <c r="D492" s="8" t="str">
         <v>每周击败{2}只变异布偶（{0}/{1}）</v>
       </c>
       <c r="E492" s="1"/>
@@ -15776,7 +15741,7 @@
       <c r="C493" s="1" t="str">
         <v>Defeat {2} Players Per Week（{0}/{1}）</v>
       </c>
-      <c r="D493" s="5" t="str">
+      <c r="D493" s="8" t="str">
         <v>每周击败{2}名玩家（{0}/{1}）</v>
       </c>
       <c r="E493" s="1"/>
@@ -15806,7 +15771,7 @@
       <c r="C494" s="1" t="str">
         <v>Upgrade By {2} Levels Per Week（{0}/{1}）</v>
       </c>
-      <c r="D494" s="5" t="str">
+      <c r="D494" s="8" t="str">
         <v>每周等级提升{2}级（{0}/{1}）</v>
       </c>
       <c r="E494" s="1"/>
@@ -15836,7 +15801,7 @@
       <c r="C495" s="1" t="str">
         <v>Pick Up {2} Treasures Every Week（{0}/{1}）</v>
       </c>
-      <c r="D495" s="5" t="str">
+      <c r="D495" s="8" t="str">
         <v>每周捡到{2}个秘宝（{0}/{1}）</v>
       </c>
       <c r="E495" s="1"/>
@@ -15866,7 +15831,7 @@
       <c r="C496" s="1" t="str">
         <v>Watch {2} Ads Per Week（{0}/{1}）</v>
       </c>
-      <c r="D496" s="5" t="str">
+      <c r="D496" s="8" t="str">
         <v>每周观看{2}次广告（{0}/{1}）</v>
       </c>
       <c r="E496" s="1"/>
@@ -16883,10 +16848,10 @@
       <c r="B530" s="1" t="str">
         <v>Text_EternalImmortalEmperor</v>
       </c>
-      <c r="C530" s="11" t="str">
+      <c r="C530" s="15" t="str">
         <v>Eternal Immortal Emperor</v>
       </c>
-      <c r="D530" s="11" t="str">
+      <c r="D530" s="15" t="str">
         <v>万古仙帝</v>
       </c>
       <c r="E530" s="1"/>
@@ -16940,7 +16905,7 @@
       <c r="A532" s="1">
         <v>528</v>
       </c>
-      <c r="B532" s="11" t="str">
+      <c r="B532" s="15" t="str">
         <v>Text_MartialSoulMechSlashWindSlash_Female</v>
       </c>
       <c r="C532" s="1" t="str">
@@ -17280,7 +17245,7 @@
       <c r="C543" s="1" t="str">
         <v>Open World</v>
       </c>
-      <c r="D543" s="2" t="str">
+      <c r="D543" s="5" t="str">
         <v>开放世界</v>
       </c>
       <c r="E543" s="1"/>
@@ -17310,7 +17275,7 @@
       <c r="C544" s="1" t="str">
         <v>Stay</v>
       </c>
-      <c r="D544" s="2" t="str">
+      <c r="D544" s="5" t="str">
         <v>留下来</v>
       </c>
       <c r="E544" s="1"/>
@@ -17340,7 +17305,7 @@
       <c r="C545" s="1" t="str">
         <v>Bad Guy</v>
       </c>
-      <c r="D545" s="2" t="str">
+      <c r="D545" s="5" t="str">
         <v>坏人</v>
       </c>
       <c r="E545" s="1"/>
@@ -17370,7 +17335,7 @@
       <c r="C546" s="1" t="str">
         <v>I Will Survive</v>
       </c>
-      <c r="D546" s="7" t="str">
+      <c r="D546" s="4" t="str">
         <v>我会活下去</v>
       </c>
       <c r="E546" s="1"/>
@@ -17400,7 +17365,7 @@
       <c r="C547" s="1" t="str">
         <v>Let Me Love You</v>
       </c>
-      <c r="D547" s="2" t="str">
+      <c r="D547" s="5" t="str">
         <v>让我爱你</v>
       </c>
       <c r="E547" s="1"/>
@@ -17430,7 +17395,7 @@
       <c r="C548" s="1" t="str">
         <v>Running Up That Hill</v>
       </c>
-      <c r="D548" s="2" t="str">
+      <c r="D548" s="5" t="str">
         <v>跑上那座山</v>
       </c>
       <c r="E548" s="1"/>
@@ -17460,7 +17425,7 @@
       <c r="C549" s="1" t="str">
         <v>Love To Hate Me</v>
       </c>
-      <c r="D549" s="2" t="str">
+      <c r="D549" s="5" t="str">
         <v>爱恨我</v>
       </c>
       <c r="E549" s="1"/>
@@ -17490,7 +17455,7 @@
       <c r="C550" s="1" t="str">
         <v>Tomboy</v>
       </c>
-      <c r="D550" s="2" t="str">
+      <c r="D550" s="5" t="str">
         <v>假小子</v>
       </c>
       <c r="E550" s="1"/>
@@ -17520,7 +17485,7 @@
       <c r="C551" s="1" t="str">
         <v>Shut Down</v>
       </c>
-      <c r="D551" s="2" t="str">
+      <c r="D551" s="5" t="str">
         <v>关闭</v>
       </c>
       <c r="E551" s="1"/>
@@ -17550,7 +17515,7 @@
       <c r="C552" s="1" t="str">
         <v>Celestial</v>
       </c>
-      <c r="D552" s="2" t="str">
+      <c r="D552" s="5" t="str">
         <v>天空的</v>
       </c>
       <c r="E552" s="1"/>
@@ -17580,7 +17545,7 @@
       <c r="C553" s="1" t="str">
         <v>As It Was</v>
       </c>
-      <c r="D553" s="7" t="str">
+      <c r="D553" s="4" t="str">
         <v>事实上</v>
       </c>
       <c r="E553" s="1"/>
@@ -17610,7 +17575,7 @@
       <c r="C554" s="1" t="str">
         <v>Good Morning</v>
       </c>
-      <c r="D554" s="2" t="str">
+      <c r="D554" s="5" t="str">
         <v>早上好</v>
       </c>
       <c r="E554" s="1"/>
@@ -17640,7 +17605,7 @@
       <c r="C555" s="1" t="str">
         <v>Alone</v>
       </c>
-      <c r="D555" s="2" t="str">
+      <c r="D555" s="5" t="str">
         <v>独自一人</v>
       </c>
       <c r="E555" s="1"/>
@@ -17670,7 +17635,7 @@
       <c r="C556" s="1" t="str">
         <v>Chanderiler</v>
       </c>
-      <c r="D556" s="2" t="str">
+      <c r="D556" s="5" t="str">
         <v>钱德里勒</v>
       </c>
       <c r="E556" s="1"/>
@@ -17700,7 +17665,7 @@
       <c r="C557" s="1" t="str">
         <v>Don'T Wanna Know</v>
       </c>
-      <c r="D557" s="2" t="str">
+      <c r="D557" s="5" t="str">
         <v>不想知道</v>
       </c>
       <c r="E557" s="1"/>
@@ -17730,7 +17695,7 @@
       <c r="C558" s="1" t="str">
         <v>Mood</v>
       </c>
-      <c r="D558" s="2" t="str">
+      <c r="D558" s="5" t="str">
         <v>心情</v>
       </c>
       <c r="E558" s="1"/>
@@ -17760,7 +17725,7 @@
       <c r="C559" s="1" t="str">
         <v>Moon</v>
       </c>
-      <c r="D559" s="7" t="str">
+      <c r="D559" s="4" t="str">
         <v>金轮</v>
       </c>
       <c r="E559" s="1"/>
@@ -17790,7 +17755,7 @@
       <c r="C560" s="1" t="str">
         <v>I Don'T Know What It'S Called</v>
       </c>
-      <c r="D560" s="2" t="str">
+      <c r="D560" s="5" t="str">
         <v>不知道叫啥</v>
       </c>
       <c r="E560" s="1"/>
@@ -17820,7 +17785,7 @@
       <c r="C561" s="1" t="str">
         <v>I Don'T Know What It'S Called</v>
       </c>
-      <c r="D561" s="2" t="str">
+      <c r="D561" s="5" t="str">
         <v>也不知道叫啥</v>
       </c>
       <c r="E561" s="1"/>
@@ -17997,7 +17962,7 @@
       <c r="B567" s="1" t="str">
         <v>Text_ForgeSoulRings_Button</v>
       </c>
-      <c r="C567" s="8" t="str">
+      <c r="C567" s="12" t="str">
         <v>Forge Soul Rings</v>
       </c>
       <c r="D567" s="1" t="str">
@@ -18024,7 +17989,7 @@
       <c r="A568" s="1">
         <v>564</v>
       </c>
-      <c r="B568" s="8" t="str">
+      <c r="B568" s="12" t="str">
         <v>Text_LotsOfDiamonds</v>
       </c>
       <c r="C568" s="1" t="str">
@@ -18142,16 +18107,16 @@
       <c r="T571" s="1"/>
     </row>
     <row r="572">
-      <c r="A572" s="3">
+      <c r="A572" s="11">
         <v>568</v>
       </c>
-      <c r="B572" s="3" t="str">
+      <c r="B572" s="11" t="str">
         <v>Text_ModifyTheTitle</v>
       </c>
-      <c r="C572" s="3" t="str">
+      <c r="C572" s="11" t="str">
         <v>Modify The Title</v>
       </c>
-      <c r="D572" s="3" t="str">
+      <c r="D572" s="11" t="str">
         <v>修改称号</v>
       </c>
       <c r="E572" s="1"/>
@@ -18172,17 +18137,17 @@
       <c r="T572" s="1"/>
     </row>
     <row r="573">
-      <c r="A573" s="3">
+      <c r="A573" s="11">
         <v>569</v>
       </c>
-      <c r="B573" s="3" t="str">
+      <c r="B573" s="11" t="str">
         <v>Text_TitleNameTips</v>
       </c>
-      <c r="C573" s="16" t="str">
+      <c r="C573" s="10" t="str">
         <v>Level reached {0}
 Consuming {1} diamonds modifies the title.</v>
       </c>
-      <c r="D573" s="16" t="str">
+      <c r="D573" s="10" t="str">
         <v>等级达到{0}级
 消耗{1}钻石即可修改称号</v>
       </c>
@@ -18204,16 +18169,16 @@
       <c r="T573" s="1"/>
     </row>
     <row r="574">
-      <c r="A574" s="3">
+      <c r="A574" s="11">
         <v>570</v>
       </c>
-      <c r="B574" s="3" t="str">
+      <c r="B574" s="11" t="str">
         <v>Text_PleaseEnterTheTitle</v>
       </c>
-      <c r="C574" s="3" t="str">
+      <c r="C574" s="11" t="str">
         <v>Please Enter The Title</v>
       </c>
-      <c r="D574" s="3" t="str">
+      <c r="D574" s="11" t="str">
         <v>请输入称号</v>
       </c>
       <c r="E574" s="1"/>
@@ -18234,16 +18199,16 @@
       <c r="T574" s="1"/>
     </row>
     <row r="575">
-      <c r="A575" s="3">
+      <c r="A575" s="11">
         <v>571</v>
       </c>
-      <c r="B575" s="3" t="str">
+      <c r="B575" s="11" t="str">
         <v>Text_ModifiedSuccessfully</v>
       </c>
-      <c r="C575" s="3" t="str">
+      <c r="C575" s="11" t="str">
         <v>Modified Successfully</v>
       </c>
-      <c r="D575" s="3" t="str">
+      <c r="D575" s="11" t="str">
         <v>修改成功</v>
       </c>
       <c r="E575" s="1"/>
@@ -18264,16 +18229,16 @@
       <c r="T575" s="1"/>
     </row>
     <row r="576">
-      <c r="A576" s="3">
+      <c r="A576" s="11">
         <v>572</v>
       </c>
-      <c r="B576" s="3" t="str">
+      <c r="B576" s="11" t="str">
         <v>Text_RestartTheGameToTakeEffect</v>
       </c>
-      <c r="C576" s="3" t="str">
+      <c r="C576" s="11" t="str">
         <v>Restart The Game To Take Effect</v>
       </c>
-      <c r="D576" s="3" t="str">
+      <c r="D576" s="11" t="str">
         <v>重启游戏即可生效</v>
       </c>
       <c r="E576" s="1"/>
@@ -18294,7 +18259,7 @@
       <c r="T576" s="1"/>
     </row>
     <row r="577">
-      <c r="A577" s="3">
+      <c r="A577" s="11">
         <v>573</v>
       </c>
       <c r="B577" s="1" t="str">
@@ -18324,7 +18289,7 @@
       <c r="T577" s="1"/>
     </row>
     <row r="578">
-      <c r="A578" s="3">
+      <c r="A578" s="11">
         <v>574</v>
       </c>
       <c r="B578" s="1" t="str">
@@ -18354,23 +18319,17 @@
       <c r="T578" s="1"/>
     </row>
     <row r="579">
-      <c r="A579" s="3">
+      <c r="A579" s="11">
         <v>575</v>
       </c>
       <c r="B579" s="1" t="str">
         <v>Text_FlashTips</v>
       </c>
       <c r="C579" s="1" t="str">
-        <v>Diamond +{0}
-Soul Bone Fragment +{1}
-Gold +{2}
-Is Equal To {3} 100 Draws.</v>
+        <v>Lv+{0}</v>
       </c>
       <c r="D579" s="1" t="str">
-        <v>钻石+{0}
-魂骨碎片+{1}
-金币+{2} 
-等于 {3}次100连抽</v>
+        <v>等级+{0}</v>
       </c>
       <c r="E579" s="1"/>
       <c r="F579" s="1"/>
@@ -18390,7 +18349,7 @@
       <c r="T579" s="1"/>
     </row>
     <row r="580">
-      <c r="A580" s="3">
+      <c r="A580" s="11">
         <v>576</v>
       </c>
       <c r="B580" s="1" t="str">
